--- a/result/result3.xlsx
+++ b/result/result3.xlsx
@@ -169,12 +169,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,32 +224,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,16 +255,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,28 +279,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -322,9 +286,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,7 +310,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,15 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +385,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,25 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,25 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,13 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,49 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,37 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +624,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -646,16 +665,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,201 +711,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,13 +883,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,8 +1216,8 @@
   <sheetPr/>
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1244,9 +1240,9 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:9">
       <c r="A2" s="5"/>
@@ -1283,3999 +1279,3621 @@
         <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3.88733e-22</v>
-      </c>
-      <c r="E3" s="7">
+        <v>-2.71051e-20</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-1.08094e-20</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
       </c>
       <c r="F3" s="9">
         <v>-0.0304125</v>
       </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2.49949606952384e-20</v>
-      </c>
-      <c r="I3" s="6">
-        <v>9.92616735063633e-23</v>
+      <c r="G3" s="10">
+        <v>5.42101e-20</v>
+      </c>
+      <c r="H3" s="10">
+        <v>-2.69433e-19</v>
+      </c>
+      <c r="I3" s="10">
+        <v>-1.05879e-21</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:9">
       <c r="A4" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="B4" s="6">
-        <v>0.125007198265731</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.048539074</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.00036611</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.001376043</v>
+        <v>0.053569058</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.386371072</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.002856658</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.028346956</v>
       </c>
       <c r="F4" s="9">
-        <v>-0.361130039</v>
+        <v>-0.188152333</v>
       </c>
       <c r="G4" s="6">
-        <v>0.022000087856329</v>
+        <v>-1.097284601</v>
       </c>
       <c r="H4" s="6">
-        <v>3.36227982578378e-6</v>
+        <v>-0.000491988</v>
       </c>
       <c r="I4" s="6">
-        <v>-0.000110772436822666</v>
+        <v>-0.000762226</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:9">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B5" s="6">
-        <v>0.0924421213709049</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-0.102890201</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.001215233</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.001816496</v>
+        <v>0.114018071</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.176128817</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.011522758</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.059034139</v>
       </c>
       <c r="F5" s="9">
-        <v>-0.271737483</v>
+        <v>-0.345268396</v>
       </c>
       <c r="G5" s="6">
-        <v>0.016961036699776</v>
+        <v>-0.363137843</v>
       </c>
       <c r="H5" s="6">
-        <v>2.63009067470965e-5</v>
+        <v>0.00020665</v>
       </c>
       <c r="I5" s="6">
-        <v>-3.91654558933702e-5</v>
+        <v>0.001914318</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:9">
       <c r="A6" s="6">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B6" s="6">
-        <v>-0.00485562055332883</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-0.300491998</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.001974735</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.00104195</v>
+        <v>0.12511999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-0.036843046</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.026127678</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.084919321</v>
       </c>
       <c r="F6" s="9">
-        <v>-0.288368285</v>
+        <v>-0.346714822</v>
       </c>
       <c r="G6" s="6">
-        <v>-0.0137615629096877</v>
+        <v>0.236424988</v>
       </c>
       <c r="H6" s="6">
-        <v>4.0786609457802e-5</v>
+        <v>-0.000351211</v>
       </c>
       <c r="I6" s="6">
-        <v>-2.37532541240899e-5</v>
+        <v>-0.000246796</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:9">
       <c r="A7" s="6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B7" s="6">
-        <v>-0.173558000351877</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-0.320563946</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.002144378</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-0.000391902</v>
+        <v>0.110695685</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-0.088557748</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.045185607</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.106792564</v>
       </c>
       <c r="F7" s="9">
-        <v>-0.299318372</v>
+        <v>-0.294179921</v>
       </c>
       <c r="G7" s="6">
-        <v>-0.0429278338395907</v>
+        <v>0.215216267</v>
       </c>
       <c r="H7" s="6">
-        <v>4.53517795727183e-5</v>
+        <v>0.000777319</v>
       </c>
       <c r="I7" s="6">
-        <v>-2.18119254890546e-5</v>
+        <v>0.005561182</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:9">
       <c r="A8" s="6">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>-0.272606454968304</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-0.028877994</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.001643568</v>
-      </c>
-      <c r="E8" s="7">
-        <v>-0.001469978</v>
+        <v>0.091866545</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-0.104893629</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.069254319</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.133973136</v>
       </c>
       <c r="F8" s="9">
-        <v>-0.321417969</v>
+        <v>-0.271745195</v>
       </c>
       <c r="G8" s="6">
-        <v>-0.0337483469762769</v>
+        <v>0.017845902</v>
       </c>
       <c r="H8" s="6">
-        <v>3.08306953660475e-5</v>
+        <v>0.000979656</v>
       </c>
       <c r="I8" s="6">
-        <v>-5.08548576883008e-6</v>
+        <v>0.000245206</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:9">
       <c r="A9" s="6">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="B9" s="6">
-        <v>-0.176229387797128</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.410549447</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.000866449</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-0.001424539</v>
+        <v>0.065146536</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-0.170955972</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.098883658</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.163490836</v>
       </c>
       <c r="F9" s="9">
-        <v>-0.327096801</v>
+        <v>-0.277622011</v>
       </c>
       <c r="G9" s="6">
-        <v>0.0143085912213107</v>
+        <v>-0.051199668</v>
       </c>
       <c r="H9" s="6">
-        <v>1.290139241461e-5</v>
+        <v>0.001820869</v>
       </c>
       <c r="I9" s="6">
-        <v>8.02220683435837e-6</v>
+        <v>0.005574776</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:9">
       <c r="A10" s="6">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="B10" s="6">
-        <v>0.099676394352075</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.624555587</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.000409983</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-0.000262143</v>
+        <v>0.021665443</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-0.263567389</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.13516392</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.20006105</v>
       </c>
       <c r="F10" s="9">
-        <v>-0.306886537</v>
+        <v>-0.28572527</v>
       </c>
       <c r="G10" s="6">
-        <v>0.0623184808252482</v>
+        <v>-0.024280543</v>
       </c>
       <c r="H10" s="6">
-        <v>2.61660030803107e-6</v>
+        <v>0.002161259</v>
       </c>
       <c r="I10" s="6">
-        <v>1.00418453863669e-5</v>
+        <v>-0.000329243</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:9">
       <c r="A11" s="6">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="B11" s="6">
-        <v>0.364586666594249</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.350467243</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.000662461</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.001240174</v>
+        <v>-0.038588747</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-0.332026874</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.179316716</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.24369835</v>
       </c>
       <c r="F11" s="9">
-        <v>-0.272880729</v>
+        <v>-0.288069518</v>
       </c>
       <c r="G11" s="6">
-        <v>0.0633069521855495</v>
+        <v>-0.004757429</v>
       </c>
       <c r="H11" s="6">
-        <v>8.27182676021403e-6</v>
+        <v>0.002942994</v>
       </c>
       <c r="I11" s="6">
-        <v>2.87797243239143e-5</v>
+        <v>0.007558963</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:9">
       <c r="A12" s="6">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="B12" s="6">
-        <v>0.387690726101606</v>
-      </c>
-      <c r="C12" s="7">
-        <v>-0.285081464</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.001535235</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.002070076</v>
+        <v>-0.107859984</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-0.351703282</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.233905449</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.305330212</v>
       </c>
       <c r="F12" s="9">
-        <v>-0.253483166</v>
+        <v>-0.289691425</v>
       </c>
       <c r="G12" s="6">
-        <v>0.00674874396290837</v>
+        <v>-0.014706668</v>
       </c>
       <c r="H12" s="6">
-        <v>3.18152634776214e-5</v>
+        <v>0.003993351</v>
       </c>
       <c r="I12" s="6">
-        <v>4.8994393880451e-5</v>
+        <v>0.002534017</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="6">
-        <v>0.0989942509757587</v>
+        <v>-0.175542165</v>
       </c>
       <c r="C13" s="1">
-        <v>-0.804007324</v>
+        <v>-0.315675044</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002524817</v>
+        <v>0.302590261</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001684865</v>
+        <v>0.384608591</v>
       </c>
       <c r="F13">
-        <v>-0.269008985</v>
+        <v>-0.294178533</v>
       </c>
       <c r="G13" s="6">
-        <v>-0.0662518948514037</v>
+        <v>-0.028282584</v>
       </c>
       <c r="H13" s="6">
-        <v>5.97553570086035e-5</v>
+        <v>0.005011342</v>
       </c>
       <c r="I13" s="6">
-        <v>3.01663549928558e-5</v>
+        <v>0.008889862</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="B14" s="6">
-        <v>-0.317224998364612</v>
+        <v>-0.230279715</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.743949333</v>
+        <v>-0.221587362</v>
       </c>
       <c r="D14" s="1">
-        <v>0.003064631</v>
+        <v>0.389007542</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000390076</v>
+        <v>0.481803421</v>
       </c>
       <c r="F14">
-        <v>-0.311923266</v>
+        <v>-0.299784775</v>
       </c>
       <c r="G14" s="6">
-        <v>-0.0935556964718487</v>
+        <v>-0.024580277</v>
       </c>
       <c r="H14" s="6">
-        <v>6.83560215266662e-5</v>
+        <v>0.006748787</v>
       </c>
       <c r="I14" s="6">
-        <v>-2.59502228123322e-5</v>
+        <v>0.007047549</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="B15" s="6">
-        <v>-0.538892458441968</v>
+        <v>-0.259841821</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.066679547</v>
+        <v>-0.062635189</v>
       </c>
       <c r="D15" s="1">
-        <v>0.002919343</v>
+        <v>0.495438472</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.000878404</v>
+        <v>0.580873302</v>
       </c>
       <c r="F15">
-        <v>-0.349546862</v>
+        <v>-0.302884094</v>
       </c>
       <c r="G15" s="6">
-        <v>-0.0450573362251485</v>
+        <v>-0.003684122</v>
       </c>
       <c r="H15" s="6">
-        <v>5.37571251583937e-5</v>
+        <v>0.008633938</v>
       </c>
       <c r="I15" s="6">
-        <v>-4.60491590526705e-5</v>
+        <v>0.014151915</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="B16" s="6">
-        <v>-0.359477792284843</v>
+        <v>-0.250631192</v>
       </c>
       <c r="C16" s="1">
-        <v>0.750490984</v>
+        <v>0.166949763</v>
       </c>
       <c r="D16" s="1">
-        <v>0.002347508</v>
+        <v>0.619824455</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001202562</v>
+        <v>0.65636512</v>
       </c>
       <c r="F16">
-        <v>-0.349428526</v>
+        <v>-0.300106986</v>
       </c>
       <c r="G16" s="6">
-        <v>0.0472229904741738</v>
+        <v>0.034297721</v>
       </c>
       <c r="H16" s="6">
-        <v>3.68476281563915e-5</v>
+        <v>0.012039159</v>
       </c>
       <c r="I16" s="6">
-        <v>-2.10381566149342e-5</v>
+        <v>0.017944426</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="B17" s="6">
-        <v>0.124228880187718</v>
+        <v>-0.188083168</v>
       </c>
       <c r="C17" s="1">
-        <v>1.056244811</v>
+        <v>0.470378806</v>
       </c>
       <c r="D17" s="1">
-        <v>0.001924411</v>
+        <v>0.754062038</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00031142</v>
+        <v>0.673523422</v>
       </c>
       <c r="F17">
-        <v>-0.307268314</v>
+        <v>-0.288043662</v>
       </c>
       <c r="G17" s="6">
-        <v>0.110464810956461</v>
+        <v>0.089367519</v>
       </c>
       <c r="H17" s="6">
-        <v>2.88392570903041e-5</v>
+        <v>0.01612687</v>
       </c>
       <c r="I17" s="6">
-        <v>2.94575354255514e-6</v>
+        <v>0.024956065</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="6">
-        <v>0.557640536932087</v>
+        <v>-0.05889879</v>
       </c>
       <c r="C18" s="1">
-        <v>0.550579327</v>
+        <v>0.82549576</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00214727</v>
+        <v>0.883705294</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001230285</v>
+        <v>0.608680988</v>
       </c>
       <c r="F18">
-        <v>-0.253427247</v>
+        <v>-0.263147696</v>
       </c>
       <c r="G18" s="6">
-        <v>0.0893421067530323</v>
+        <v>0.161782154</v>
       </c>
       <c r="H18" s="6">
-        <v>3.4598366890792e-5</v>
+        <v>0.021776736</v>
       </c>
       <c r="I18" s="6">
-        <v>3.66120563846749e-5</v>
+        <v>0.028822375</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="B19" s="6">
-        <v>0.592372882074587</v>
+        <v>0.140253233</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.434283675</v>
+        <v>1.149810666</v>
       </c>
       <c r="D19" s="1">
-        <v>0.003092888</v>
+        <v>0.992274428</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002410531</v>
+        <v>0.466047241</v>
       </c>
       <c r="F19">
-        <v>-0.230678383</v>
+        <v>-0.22336982</v>
       </c>
       <c r="G19" s="6">
-        <v>-0.00599732625757724</v>
+        <v>0.232992204</v>
       </c>
       <c r="H19" s="6">
-        <v>6.13082236317827e-5</v>
+        <v>0.026997318</v>
       </c>
       <c r="I19" s="6">
-        <v>7.77584463304586e-5</v>
+        <v>0.022912288</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="B20" s="6">
-        <v>0.168765871253567</v>
+        <v>0.388583646</v>
       </c>
       <c r="C20" s="1">
-        <v>-1.152413299</v>
+        <v>1.287160255</v>
       </c>
       <c r="D20" s="1">
-        <v>0.004367735</v>
+        <v>1.067149037</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002478969</v>
+        <v>0.279115549</v>
       </c>
       <c r="F20">
-        <v>-0.259841873</v>
+        <v>-0.17244585</v>
       </c>
       <c r="G20" s="6">
-        <v>-0.103581542989555</v>
+        <v>0.266908154</v>
       </c>
       <c r="H20" s="6">
-        <v>9.944517629176e-5</v>
+        <v>0.030300812</v>
       </c>
       <c r="I20" s="6">
-        <v>6.69850847090318e-5</v>
+        <v>0.00714353</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="B21" s="6">
-        <v>-0.413935674879406</v>
+        <v>0.63211254</v>
       </c>
       <c r="C21" s="1">
-        <v>-1.017469116</v>
+        <v>1.085065177</v>
       </c>
       <c r="D21" s="1">
-        <v>0.005387812</v>
+        <v>1.103811958</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001470289</v>
+        <v>0.089689327</v>
       </c>
       <c r="F21">
-        <v>-0.321193403</v>
+        <v>-0.121185537</v>
       </c>
       <c r="G21" s="6">
-        <v>-0.124867802526398</v>
+        <v>0.2333845</v>
       </c>
       <c r="H21" s="6">
-        <v>0.00011312905841738</v>
+        <v>0.029199279</v>
       </c>
       <c r="I21" s="6">
-        <v>-1.23452484018247e-5</v>
+        <v>-0.016600642</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="B22" s="6">
-        <v>-0.711651586938008</v>
+        <v>0.799393927</v>
       </c>
       <c r="C22" s="1">
-        <v>-0.083618018</v>
+        <v>0.541519753</v>
       </c>
       <c r="D22" s="1">
-        <v>0.00578805</v>
+        <v>1.104298351</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000169198</v>
+        <v>-0.08140286</v>
       </c>
       <c r="F22">
-        <v>-0.367948872</v>
+        <v>-0.08350758</v>
       </c>
       <c r="G22" s="6">
-        <v>-0.0484453078674136</v>
+        <v>0.13477187</v>
       </c>
       <c r="H22" s="6">
-        <v>9.66726354899347e-5</v>
+        <v>0.025496686</v>
       </c>
       <c r="I22" s="6">
-        <v>-3.95902513171586e-5</v>
+        <v>-0.014687653</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B23" s="6">
-        <v>-0.478204029569262</v>
+        <v>0.837711553</v>
       </c>
       <c r="C23" s="1">
-        <v>0.961800263</v>
+        <v>-0.165462867</v>
       </c>
       <c r="D23" s="1">
-        <v>0.005676197</v>
+        <v>1.072490809</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.00043387</v>
+        <v>-0.233878814</v>
       </c>
       <c r="F23">
-        <v>-0.362443706</v>
+        <v>-0.069420147</v>
       </c>
       <c r="G23" s="6">
-        <v>0.0698193770700897</v>
+        <v>0.004062089</v>
       </c>
       <c r="H23" s="6">
-        <v>8.77623566423349e-5</v>
+        <v>0.02474778</v>
       </c>
       <c r="I23" s="6">
-        <v>1.86523802057695e-6</v>
+        <v>0.007110836</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="B24" s="6">
-        <v>0.131106726755856</v>
+        <v>0.737897508</v>
       </c>
       <c r="C24" s="1">
-        <v>1.311678265</v>
+        <v>-0.80517814</v>
       </c>
       <c r="D24" s="1">
-        <v>0.005561872</v>
+        <v>1.011892169</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000178934</v>
+        <v>-0.368837157</v>
       </c>
       <c r="F24">
-        <v>-0.306637843</v>
+        <v>-0.081524104</v>
       </c>
       <c r="G24" s="6">
-        <v>0.138355036445536</v>
+        <v>-0.12171202</v>
       </c>
       <c r="H24" s="6">
-        <v>9.51353289132129e-5</v>
+        <v>0.026903784</v>
       </c>
       <c r="I24" s="6">
-        <v>2.1730547201475e-5</v>
+        <v>0.008996294</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="B25" s="6">
-        <v>0.663371521403517</v>
+        <v>0.530564426</v>
       </c>
       <c r="C25" s="1">
-        <v>0.668926201</v>
+        <v>-1.225226608</v>
       </c>
       <c r="D25" s="1">
-        <v>0.006009173</v>
+        <v>0.926606832</v>
       </c>
       <c r="E25" s="1">
-        <v>0.001693605</v>
+        <v>-0.478795153</v>
       </c>
       <c r="F25">
-        <v>-0.242131773</v>
+        <v>-0.116052599</v>
       </c>
       <c r="G25" s="6">
-        <v>0.101622373134829</v>
+        <v>-0.217116488</v>
       </c>
       <c r="H25" s="6">
-        <v>0.000109266708074337</v>
+        <v>0.026764525</v>
       </c>
       <c r="I25" s="6">
-        <v>4.41241223789957e-5</v>
+        <v>-0.011243819</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="B26" s="6">
-        <v>0.709118607824413</v>
+        <v>0.264993277</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.503741887</v>
+        <v>-1.390284797</v>
       </c>
       <c r="D26" s="1">
-        <v>0.007251221</v>
+        <v>0.823001566</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00318439</v>
+        <v>-0.549281481</v>
       </c>
       <c r="F26">
-        <v>-0.218685039</v>
+        <v>-0.165365549</v>
       </c>
       <c r="G26" s="6">
-        <v>-0.0148043697198279</v>
+        <v>-0.267471128</v>
       </c>
       <c r="H26" s="6">
-        <v>0.000145944079257297</v>
+        <v>0.023141671</v>
       </c>
       <c r="I26" s="6">
-        <v>0.000106756225143459</v>
+        <v>-0.022367754</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="B27" s="6">
-        <v>0.220204690076141</v>
+        <v>-0.011462369</v>
       </c>
       <c r="C27" s="1">
-        <v>-1.32222571</v>
+        <v>-1.344199729</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009038652</v>
+        <v>0.710538349</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003769712</v>
+        <v>-0.565606099</v>
       </c>
       <c r="F27">
-        <v>-0.25543983</v>
+        <v>-0.219387017</v>
       </c>
       <c r="G27" s="6">
-        <v>-0.122442301731142</v>
+        <v>-0.263805263</v>
       </c>
       <c r="H27" s="6">
-        <v>0.00020189484963862</v>
+        <v>0.018257791</v>
       </c>
       <c r="I27" s="6">
-        <v>9.33967694928473e-5</v>
+        <v>-0.026489476</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="B28" s="6">
-        <v>-0.44435316143254</v>
+        <v>-0.262399314</v>
       </c>
       <c r="C28" s="1">
-        <v>-1.155510163</v>
+        <v>-1.14321211</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01082767</v>
+        <v>0.600516847</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003224269</v>
+        <v>-0.526068661</v>
       </c>
       <c r="F28">
-        <v>-0.325357924</v>
+        <v>-0.267967434</v>
       </c>
       <c r="G28" s="6">
-        <v>-0.138047032067927</v>
+        <v>-0.216913927</v>
       </c>
       <c r="H28" s="6">
-        <v>0.000217015682060406</v>
+        <v>0.01301614</v>
       </c>
       <c r="I28" s="6">
-        <v>-3.33945788643895e-5</v>
+        <v>-0.02334007</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="B29" s="6">
-        <v>-0.785674409443927</v>
+        <v>-0.461264332</v>
       </c>
       <c r="C29" s="1">
-        <v>-0.115500822</v>
+        <v>-0.829740615</v>
       </c>
       <c r="D29" s="1">
-        <v>0.012167158</v>
+        <v>0.503079531</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002118818</v>
+        <v>-0.442109147</v>
       </c>
       <c r="F29">
-        <v>-0.375467713</v>
+        <v>-0.304998345</v>
       </c>
       <c r="G29" s="6">
-        <v>-0.048514017450702</v>
+        <v>-0.152471043</v>
       </c>
       <c r="H29" s="6">
-        <v>0.000189071309665429</v>
+        <v>0.009368044</v>
       </c>
       <c r="I29" s="6">
-        <v>-4.31543075480092e-5</v>
+        <v>-0.014650199</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="B30" s="6">
-        <v>-0.54340762883577</v>
+        <v>-0.589126824</v>
       </c>
       <c r="C30" s="1">
-        <v>1.020357099</v>
+        <v>-0.438912978</v>
       </c>
       <c r="D30" s="1">
-        <v>0.013016728</v>
+        <v>0.425487255</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001425212</v>
+        <v>-0.331092146</v>
       </c>
       <c r="F30">
-        <v>-0.367457587</v>
+        <v>-0.32921939</v>
       </c>
       <c r="G30" s="6">
-        <v>0.07844469013002</v>
+        <v>-0.091445236</v>
       </c>
       <c r="H30" s="6">
-        <v>0.000196226430662065</v>
+        <v>0.006672964</v>
       </c>
       <c r="I30" s="6">
-        <v>7.13538609558244e-5</v>
+        <v>-0.011221744</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="B31" s="6">
-        <v>0.104769122997261</v>
+        <v>-0.634313308</v>
       </c>
       <c r="C31" s="1">
-        <v>1.397751936</v>
+        <v>-0.010740442</v>
       </c>
       <c r="D31" s="1">
-        <v>0.013783305</v>
+        <v>0.371228571</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001849578</v>
+        <v>-0.210754697</v>
       </c>
       <c r="F31">
-        <v>-0.307152849</v>
+        <v>-0.342209999</v>
       </c>
       <c r="G31" s="6">
-        <v>0.146294505547022</v>
+        <v>-0.039454206</v>
       </c>
       <c r="H31" s="6">
-        <v>0.000243407475738155</v>
+        <v>0.005277589</v>
       </c>
       <c r="I31" s="6">
-        <v>9.51819118348396e-5</v>
+        <v>-0.004010143</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="B32" s="6">
-        <v>0.67598638798183</v>
+        <v>-0.594190734</v>
       </c>
       <c r="C32" s="1">
-        <v>0.73378016</v>
+        <v>0.406031839</v>
       </c>
       <c r="D32" s="1">
-        <v>0.015048619</v>
+        <v>0.341262135</v>
       </c>
       <c r="E32" s="1">
-        <v>0.003342059</v>
+        <v>-0.089294958</v>
       </c>
       <c r="F32">
-        <v>-0.240069225</v>
+        <v>-0.345242955</v>
       </c>
       <c r="G32" s="6">
-        <v>0.103803694638658</v>
+        <v>0.008606918</v>
       </c>
       <c r="H32" s="6">
-        <v>0.00028599437161721</v>
+        <v>0.004506151</v>
       </c>
       <c r="I32" s="6">
-        <v>8.8431121541136e-5</v>
+        <v>-0.002963659</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B33" s="6">
-        <v>0.74590212031052</v>
+        <v>-0.475846685</v>
       </c>
       <c r="C33" s="1">
-        <v>-0.471397541</v>
+        <v>0.763758658</v>
       </c>
       <c r="D33" s="1">
-        <v>0.017178486</v>
+        <v>0.33531774</v>
       </c>
       <c r="E33" s="1">
-        <v>0.005147862</v>
+        <v>0.029639011</v>
       </c>
       <c r="F33">
-        <v>-0.216615614</v>
+        <v>-0.338983382</v>
       </c>
       <c r="G33" s="6">
-        <v>-0.0161508157705778</v>
+        <v>0.053366261</v>
       </c>
       <c r="H33" s="6">
-        <v>0.000351275594053678</v>
+        <v>0.004515443</v>
       </c>
       <c r="I33" s="6">
-        <v>0.000180136018161107</v>
+        <v>0.002272798</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="B34" s="6">
-        <v>0.266193499835516</v>
+        <v>-0.295430842</v>
       </c>
       <c r="C34" s="1">
-        <v>-1.317255604</v>
+        <v>1.020805451</v>
       </c>
       <c r="D34" s="1">
-        <v>0.020094303</v>
+        <v>0.35308052</v>
       </c>
       <c r="E34" s="1">
-        <v>0.006357843</v>
+        <v>0.147713284</v>
       </c>
       <c r="F34">
-        <v>-0.253889479</v>
+        <v>-0.324306966</v>
       </c>
       <c r="G34" s="6">
-        <v>-0.122559217902331</v>
+        <v>0.091857541</v>
       </c>
       <c r="H34" s="6">
-        <v>0.000444286733934357</v>
+        <v>0.004972949</v>
       </c>
       <c r="I34" s="6">
-        <v>0.000145838574229447</v>
+        <v>0.002827285</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="B35" s="6">
-        <v>-0.403382276706438</v>
+        <v>-0.076225872</v>
       </c>
       <c r="C35" s="1">
-        <v>-1.182402469</v>
+        <v>1.147720776</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0233593</v>
+        <v>0.394211562</v>
       </c>
       <c r="E35" s="1">
-        <v>0.006532753</v>
+        <v>0.262993487</v>
       </c>
       <c r="F35">
-        <v>-0.32325973</v>
+        <v>-0.302958306</v>
       </c>
       <c r="G35" s="6">
-        <v>-0.136099857393173</v>
+        <v>0.119788649</v>
       </c>
       <c r="H35" s="6">
-        <v>0.000461325226143445</v>
+        <v>0.006039525</v>
       </c>
       <c r="I35" s="6">
-        <v>-7.77401220495618e-5</v>
+        <v>0.007530867</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="B36" s="6">
-        <v>-0.768250304334863</v>
+        <v>0.153872518</v>
       </c>
       <c r="C36" s="1">
-        <v>-0.183089673</v>
+        <v>1.128508974</v>
       </c>
       <c r="D36" s="1">
-        <v>0.026503205</v>
+        <v>0.457848357</v>
       </c>
       <c r="E36" s="1">
-        <v>0.005984301</v>
+        <v>0.371452818</v>
       </c>
       <c r="F36">
-        <v>-0.372694231</v>
+        <v>-0.27714132</v>
       </c>
       <c r="G36" s="6">
-        <v>-0.0486407658284701</v>
+        <v>0.136440015</v>
       </c>
       <c r="H36" s="6">
-        <v>0.00040974431750507</v>
+        <v>0.007629623</v>
       </c>
       <c r="I36" s="6">
-        <v>-6.15144934564249e-5</v>
+        <v>0.008411269</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="B37" s="6">
-        <v>-0.567316452058264</v>
+        <v>0.365496103</v>
       </c>
       <c r="C37" s="1">
-        <v>0.92891332</v>
+        <v>0.964565597</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0293654</v>
+        <v>0.541603342</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005565078</v>
+        <v>0.462130039</v>
       </c>
       <c r="F37">
-        <v>-0.366150494</v>
+        <v>-0.249112527</v>
       </c>
       <c r="G37" s="6">
-        <v>0.0724849555430683</v>
+        <v>0.142278114</v>
       </c>
       <c r="H37" s="6">
-        <v>0.000444327560439241</v>
+        <v>0.009703343</v>
       </c>
       <c r="I37" s="6">
-        <v>0.000201166093200516</v>
+        <v>0.012520485</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="B38" s="6">
-        <v>0.0402381138092116</v>
+        <v>0.531195418</v>
       </c>
       <c r="C38" s="1">
-        <v>1.338187643</v>
+        <v>0.673741249</v>
       </c>
       <c r="D38" s="1">
-        <v>0.032227972</v>
+        <v>0.640707456</v>
       </c>
       <c r="E38" s="1">
-        <v>0.006081515</v>
+        <v>0.52283601</v>
       </c>
       <c r="F38">
-        <v>-0.309925183</v>
+        <v>-0.220784193</v>
       </c>
       <c r="G38" s="6">
-        <v>0.136975031431521</v>
+        <v>0.139652168</v>
       </c>
       <c r="H38" s="6">
-        <v>0.000573879346613855</v>
+        <v>0.012390822</v>
       </c>
       <c r="I38" s="6">
-        <v>0.000267392331363067</v>
+        <v>0.013886297</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="B39" s="6">
-        <v>0.603104524020569</v>
+        <v>0.628934862</v>
       </c>
       <c r="C39" s="1">
-        <v>0.767367137</v>
+        <v>0.292641027</v>
       </c>
       <c r="D39" s="1">
-        <v>0.035640034</v>
+        <v>0.74790791</v>
       </c>
       <c r="E39" s="1">
-        <v>0.007730845</v>
+        <v>0.541325331</v>
       </c>
       <c r="F39">
-        <v>-0.246654247</v>
+        <v>-0.193810139</v>
       </c>
       <c r="G39" s="6">
-        <v>0.0994123525510275</v>
+        <v>0.128687684</v>
       </c>
       <c r="H39" s="6">
-        <v>0.000690658344954356</v>
+        <v>0.0154075</v>
       </c>
       <c r="I39" s="6">
-        <v>0.000217547849012119</v>
+        <v>0.016959182</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="B40" s="6">
-        <v>0.716247244131702</v>
+        <v>0.645887668</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.338111486</v>
+        <v>-0.123142618</v>
       </c>
       <c r="D40" s="1">
-        <v>0.040064605</v>
+        <v>0.853934631</v>
       </c>
       <c r="E40" s="1">
-        <v>0.010004401</v>
+        <v>0.510412996</v>
       </c>
       <c r="F40">
-        <v>-0.222608912</v>
+        <v>-0.169888098</v>
       </c>
       <c r="G40" s="6">
-        <v>-0.00888674528332058</v>
+        <v>0.108927643</v>
       </c>
       <c r="H40" s="6">
-        <v>0.000825484488575148</v>
+        <v>0.019232038</v>
       </c>
       <c r="I40" s="6">
-        <v>0.000338649076422989</v>
+        <v>0.021030863</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="B41" s="6">
-        <v>0.313378306123729</v>
+        <v>0.582519222</v>
       </c>
       <c r="C41" s="1">
-        <v>-1.162078547</v>
+        <v>-0.495597573</v>
       </c>
       <c r="D41" s="1">
-        <v>0.04561208</v>
+        <v>0.94859767</v>
       </c>
       <c r="E41" s="1">
-        <v>0.012092945</v>
+        <v>0.427442378</v>
       </c>
       <c r="F41">
-        <v>-0.253636346</v>
+        <v>-0.150972079</v>
       </c>
       <c r="G41" s="6">
-        <v>-0.106207850592715</v>
+        <v>0.07827624</v>
       </c>
       <c r="H41" s="6">
-        <v>0.000996482069000273</v>
+        <v>0.023851616</v>
       </c>
       <c r="I41" s="6">
-        <v>0.000270994685007166</v>
+        <v>0.025703598</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6">
-        <v>19.5</v>
+        <v>7.8</v>
       </c>
       <c r="B42" s="6">
-        <v>-0.298363952761174</v>
+        <v>0.456930261</v>
       </c>
       <c r="C42" s="1">
-        <v>-1.124879861</v>
+        <v>-0.729232214</v>
       </c>
       <c r="D42" s="1">
-        <v>0.052029376</v>
+        <v>1.021434389</v>
       </c>
       <c r="E42" s="1">
-        <v>0.013434016</v>
+        <v>0.292470848</v>
       </c>
       <c r="F42">
-        <v>-0.314957135</v>
+        <v>-0.139288657</v>
       </c>
       <c r="G42" s="6">
-        <v>-0.122659250649933</v>
+        <v>0.037156532</v>
       </c>
       <c r="H42" s="6">
-        <v>0.00103757499707104</v>
+        <v>0.029616804</v>
       </c>
       <c r="I42" s="6">
-        <v>-0.000108484274603089</v>
+        <v>0.031263862</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B43" s="6">
-        <v>-0.675194285756155</v>
+        <v>0.305519203</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.290480284</v>
+        <v>-0.745191394</v>
       </c>
       <c r="D43" s="1">
-        <v>0.058924708</v>
+        <v>1.062445078</v>
       </c>
       <c r="E43" s="1">
-        <v>0.014068426</v>
+        <v>0.110764085</v>
       </c>
       <c r="F43">
-        <v>-0.361127816</v>
+        <v>-0.136451993</v>
       </c>
       <c r="G43" s="6">
-        <v>-0.0504529685192016</v>
+        <v>-0.009075133</v>
       </c>
       <c r="H43" s="6">
-        <v>0.000959499578064782</v>
+        <v>0.035578518</v>
       </c>
       <c r="I43" s="6">
-        <v>-8.84608806919197e-5</v>
+        <v>0.025452165</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
-        <v>20.5</v>
+        <v>8.2</v>
       </c>
       <c r="B44" s="6">
-        <v>-0.560398725808242</v>
+        <v>0.173627906</v>
       </c>
       <c r="C44" s="1">
-        <v>0.711595744</v>
+        <v>-0.543772755</v>
       </c>
       <c r="D44" s="1">
-        <v>0.066084412</v>
+        <v>1.063700512</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01462843</v>
+        <v>-0.100939497</v>
       </c>
       <c r="F44">
-        <v>-0.359920377</v>
+        <v>-0.142820521</v>
       </c>
       <c r="G44" s="6">
-        <v>0.0539877716224932</v>
+        <v>-0.053874946</v>
       </c>
       <c r="H44" s="6">
-        <v>0.00103525193924055</v>
+        <v>0.038590918</v>
       </c>
       <c r="I44" s="6">
-        <v>0.000409231203614254</v>
+        <v>0.002200122</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="B45" s="6">
-        <v>-0.0575442521302746</v>
+        <v>0.095209335</v>
       </c>
       <c r="C45" s="1">
-        <v>1.165719036</v>
+        <v>-0.235858994</v>
       </c>
       <c r="D45" s="1">
-        <v>0.073674889</v>
+        <v>1.022197854</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01590379</v>
+        <v>-0.31054829</v>
       </c>
       <c r="F45">
-        <v>-0.314673098</v>
+        <v>-0.157504045</v>
       </c>
       <c r="G45" s="6">
-        <v>0.114569110584669</v>
+        <v>-0.0910978</v>
       </c>
       <c r="H45" s="6">
-        <v>0.00131549005410881</v>
+        <v>0.036105842</v>
       </c>
       <c r="I45" s="6">
-        <v>0.000623755328306274</v>
+        <v>-0.025819119</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
-        <v>21.5</v>
+        <v>8.6</v>
       </c>
       <c r="B46" s="6">
-        <v>0.462072886316464</v>
+        <v>0.076098034</v>
       </c>
       <c r="C46" s="1">
-        <v>0.782441169</v>
+        <v>0.026526934</v>
       </c>
       <c r="D46" s="1">
-        <v>0.082175729</v>
+        <v>0.94207543</v>
       </c>
       <c r="E46" s="1">
-        <v>0.018281974</v>
+        <v>-0.48170317</v>
       </c>
       <c r="F46">
-        <v>-0.259708083</v>
+        <v>-0.178168155</v>
       </c>
       <c r="G46" s="6">
-        <v>0.091283967435048</v>
+        <v>-0.111850911</v>
       </c>
       <c r="H46" s="6">
-        <v>0.00160480781155149</v>
+        <v>0.02948113</v>
       </c>
       <c r="I46" s="6">
-        <v>0.000539041933713114</v>
+        <v>-0.036666992</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6">
-        <v>22</v>
+        <v>8.8</v>
       </c>
       <c r="B47" s="6">
-        <v>0.635650694772329</v>
+        <v>0.096231234</v>
       </c>
       <c r="C47" s="1">
-        <v>-0.123857653</v>
+        <v>0.148221947</v>
       </c>
       <c r="D47" s="1">
-        <v>0.092106205</v>
+        <v>0.833739796</v>
       </c>
       <c r="E47" s="1">
-        <v>0.021543755</v>
+        <v>-0.590169861</v>
       </c>
       <c r="F47">
-        <v>-0.233951999</v>
+        <v>-0.200502346</v>
       </c>
       <c r="G47" s="6">
-        <v>0.00613835242106892</v>
+        <v>-0.107067666</v>
       </c>
       <c r="H47" s="6">
-        <v>0.00189714850925361</v>
+        <v>0.022482203</v>
       </c>
       <c r="I47" s="6">
-        <v>0.000663380657635035</v>
+        <v>-0.032326616</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="B48" s="6">
-        <v>0.361713393924405</v>
+        <v>0.125341174</v>
       </c>
       <c r="C48" s="1">
-        <v>-0.894341834</v>
+        <v>0.121238985</v>
       </c>
       <c r="D48" s="1">
-        <v>0.103769874</v>
+        <v>0.710594169</v>
       </c>
       <c r="E48" s="1">
-        <v>0.025109374</v>
+        <v>-0.630350609</v>
       </c>
       <c r="F48">
-        <v>-0.25320229</v>
+        <v>-0.219682468</v>
       </c>
       <c r="G48" s="6">
-        <v>-0.0770536195541843</v>
+        <v>-0.083264079</v>
       </c>
       <c r="H48" s="6">
-        <v>0.00223495763567852</v>
+        <v>0.016661429</v>
       </c>
       <c r="I48" s="6">
-        <v>0.00059025209795774</v>
+        <v>-0.025536875</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6">
-        <v>23</v>
+        <v>9.2</v>
       </c>
       <c r="B49" s="6">
-        <v>-0.146091540357239</v>
+        <v>0.138153057</v>
       </c>
       <c r="C49" s="1">
-        <v>-1.007085342</v>
+        <v>-0.003934228</v>
       </c>
       <c r="D49" s="1">
-        <v>0.117173196</v>
+        <v>0.585567774</v>
       </c>
       <c r="E49" s="1">
-        <v>0.028433443</v>
+        <v>-0.611177537</v>
       </c>
       <c r="F49">
-        <v>-0.300811888</v>
+        <v>-0.234039298</v>
       </c>
       <c r="G49" s="6">
-        <v>-0.10076953534409</v>
+        <v>-0.062567403</v>
       </c>
       <c r="H49" s="6">
-        <v>0.00239526757111644</v>
+        <v>0.012382825</v>
       </c>
       <c r="I49" s="6">
-        <v>2.60889469612202e-5</v>
+        <v>-0.017625229</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6">
-        <v>23.5</v>
+        <v>9.4</v>
       </c>
       <c r="B50" s="6">
-        <v>-0.527028485173478</v>
+        <v>0.121662671</v>
       </c>
       <c r="C50" s="1">
-        <v>-0.427002307</v>
+        <v>-0.161056505</v>
       </c>
       <c r="D50" s="1">
-        <v>0.13212997</v>
+        <v>0.469048011</v>
       </c>
       <c r="E50" s="1">
-        <v>0.031336312</v>
+        <v>-0.548312147</v>
       </c>
       <c r="F50">
-        <v>-0.341798279</v>
+        <v>-0.245925221</v>
       </c>
       <c r="G50" s="6">
-        <v>-0.0532557191726277</v>
+        <v>-0.059449309</v>
       </c>
       <c r="H50" s="6">
-        <v>0.00234435252171265</v>
+        <v>0.009239535</v>
       </c>
       <c r="I50" s="6">
-        <v>-6.46310943128676e-5</v>
+        <v>-0.014458511</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="B51" s="6">
-        <v>-0.5299893289497</v>
+        <v>0.075387115</v>
       </c>
       <c r="C51" s="1">
-        <v>0.406794469</v>
+        <v>-0.294102368</v>
       </c>
       <c r="D51" s="1">
-        <v>0.148493375</v>
+        <v>0.367856931</v>
       </c>
       <c r="E51" s="1">
-        <v>0.034153576</v>
+        <v>-0.461044984</v>
       </c>
       <c r="F51">
-        <v>-0.348414545</v>
+        <v>-0.258770966</v>
       </c>
       <c r="G51" s="6">
-        <v>0.0274968102710015</v>
+        <v>-0.070181188</v>
       </c>
       <c r="H51" s="6">
-        <v>0.00248323639922475</v>
+        <v>0.006674507</v>
       </c>
       <c r="I51" s="6">
-        <v>0.000695795079438607</v>
+        <v>-0.01076837</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6">
-        <v>24.5</v>
+        <v>9.8</v>
       </c>
       <c r="B52" s="6">
-        <v>-0.175970957663397</v>
+        <v>0.008026341</v>
       </c>
       <c r="C52" s="1">
-        <v>0.915806873</v>
+        <v>-0.36762018</v>
       </c>
       <c r="D52" s="1">
-        <v>0.16637565</v>
+        <v>0.28523361</v>
       </c>
       <c r="E52" s="1">
-        <v>0.03751651</v>
+        <v>-0.364519599</v>
       </c>
       <c r="F52">
-        <v>-0.318414258</v>
+        <v>-0.273941725</v>
       </c>
       <c r="G52" s="6">
-        <v>0.0843744196276302</v>
+        <v>-0.080362653</v>
       </c>
       <c r="H52" s="6">
-        <v>0.00300490885936633</v>
+        <v>0.004832784</v>
       </c>
       <c r="I52" s="6">
-        <v>0.00127499736216539</v>
+        <v>-0.008286659</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B53" s="6">
-        <v>0.275954492209759</v>
+        <v>-0.06645342</v>
       </c>
       <c r="C53" s="1">
-        <v>0.782062647</v>
+        <v>-0.363564271</v>
       </c>
       <c r="D53" s="1">
-        <v>0.186179365</v>
+        <v>0.222058556</v>
       </c>
       <c r="E53" s="1">
-        <v>0.041879611</v>
+        <v>-0.267640082</v>
       </c>
       <c r="F53">
-        <v>-0.274224179</v>
+        <v>-0.29026823</v>
       </c>
       <c r="G53" s="6">
-        <v>0.0817289625341892</v>
+        <v>-0.081089775</v>
       </c>
       <c r="H53" s="6">
-        <v>0.00365065917669946</v>
+        <v>0.00334286</v>
       </c>
       <c r="I53" s="6">
-        <v>0.0012611112286933</v>
+        <v>-0.006098522</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6">
-        <v>25.5</v>
+        <v>10.2</v>
       </c>
       <c r="B54" s="6">
-        <v>0.519110888015676</v>
+        <v>-0.132054112</v>
       </c>
       <c r="C54" s="1">
-        <v>0.138156721</v>
+        <v>-0.279852525</v>
       </c>
       <c r="D54" s="1">
-        <v>0.2084255</v>
+        <v>0.178008723</v>
       </c>
       <c r="E54" s="1">
-        <v>0.047252706</v>
+        <v>-0.173133647</v>
       </c>
       <c r="F54">
-        <v>-0.245547687</v>
+        <v>-0.305652739</v>
       </c>
       <c r="G54" s="6">
-        <v>0.027117602097519</v>
+        <v>-0.071029036</v>
       </c>
       <c r="H54" s="6">
-        <v>0.00428993940030514</v>
+        <v>0.002419776</v>
       </c>
       <c r="I54" s="6">
-        <v>0.00134900353684131</v>
+        <v>-0.003693548</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="B55" s="6">
-        <v>0.405450894342762</v>
+        <v>-0.17395279</v>
       </c>
       <c r="C55" s="1">
-        <v>-0.557887024</v>
+        <v>-0.129968527</v>
       </c>
       <c r="D55" s="1">
-        <v>0.233546992</v>
+        <v>0.152749993</v>
       </c>
       <c r="E55" s="1">
-        <v>0.053312323</v>
+        <v>-0.079437751</v>
       </c>
       <c r="F55">
-        <v>-0.248935888</v>
+        <v>-0.318061469</v>
       </c>
       <c r="G55" s="6">
-        <v>-0.0383845412368323</v>
+        <v>-0.051695562</v>
       </c>
       <c r="H55" s="6">
-        <v>0.00499979833618423</v>
+        <v>0.001766963</v>
       </c>
       <c r="I55" s="6">
-        <v>0.00141022925418042</v>
+        <v>-0.002425716</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6">
-        <v>26.5</v>
+        <v>10.6</v>
       </c>
       <c r="B56" s="6">
-        <v>0.0305903378870942</v>
+        <v>-0.181390525</v>
       </c>
       <c r="C56" s="1">
-        <v>-0.848542581</v>
+        <v>0.059386983</v>
       </c>
       <c r="D56" s="1">
-        <v>0.261781192</v>
+        <v>0.146382176</v>
       </c>
       <c r="E56" s="1">
-        <v>0.059635416</v>
+        <v>0.016572569</v>
       </c>
       <c r="F56">
-        <v>-0.278261594</v>
+        <v>-0.325845643</v>
       </c>
       <c r="G56" s="6">
-        <v>-0.0708137391111733</v>
+        <v>-0.02510407</v>
       </c>
       <c r="H56" s="6">
-        <v>0.00558093363387173</v>
+        <v>0.001542828</v>
       </c>
       <c r="I56" s="6">
-        <v>0.0008245172351185</v>
+        <v>-0.000187854</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6">
-        <v>27</v>
+        <v>10.8</v>
       </c>
       <c r="B57" s="6">
-        <v>-0.346244034968332</v>
+        <v>-0.149911349</v>
       </c>
       <c r="C57" s="1">
-        <v>-0.57166994</v>
+        <v>0.252980755</v>
       </c>
       <c r="D57" s="1">
-        <v>0.293171379</v>
+        <v>0.159831511</v>
       </c>
       <c r="E57" s="1">
-        <v>0.065902963</v>
+        <v>0.11926548</v>
       </c>
       <c r="F57">
-        <v>-0.311000181</v>
+        <v>-0.327796199</v>
       </c>
       <c r="G57" s="6">
-        <v>-0.0519877860863128</v>
+        <v>0.006038466</v>
       </c>
       <c r="H57" s="6">
-        <v>0.00585094682921719</v>
+        <v>0.001590116</v>
       </c>
       <c r="I57" s="6">
-        <v>0.000409397008928872</v>
+        <v>0.001004361</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6">
-        <v>27.5</v>
+        <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>-0.480662274608777</v>
+        <v>-0.082407686</v>
       </c>
       <c r="C58" s="1">
-        <v>0.060167015</v>
+        <v>0.413570963</v>
       </c>
       <c r="D58" s="1">
-        <v>0.327669074</v>
+        <v>0.194712033</v>
       </c>
       <c r="E58" s="1">
-        <v>0.072091491</v>
+        <v>0.231289127</v>
       </c>
       <c r="F58">
-        <v>-0.324271507</v>
+        <v>-0.323387445</v>
       </c>
       <c r="G58" s="6">
-        <v>0.00198235177036059</v>
+        <v>0.037828829</v>
       </c>
       <c r="H58" s="6">
-        <v>0.00620020184253526</v>
+        <v>0.002080946</v>
       </c>
       <c r="I58" s="6">
-        <v>0.00117161080807684</v>
+        <v>0.003755271</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6">
-        <v>28</v>
+        <v>11.2</v>
       </c>
       <c r="B59" s="6">
-        <v>-0.29797899662982</v>
+        <v>0.011100329</v>
       </c>
       <c r="C59" s="1">
-        <v>0.623198113</v>
+        <v>0.508290317</v>
       </c>
       <c r="D59" s="1">
-        <v>0.365295086</v>
+        <v>0.253007103</v>
       </c>
       <c r="E59" s="1">
-        <v>0.078472868</v>
+        <v>0.352945067</v>
       </c>
       <c r="F59">
-        <v>-0.309260875</v>
+        <v>-0.312886203</v>
       </c>
       <c r="G59" s="6">
-        <v>0.0546701906750996</v>
+        <v>0.06632448</v>
       </c>
       <c r="H59" s="6">
-        <v>0.00708417215365148</v>
+        <v>0.003027966</v>
       </c>
       <c r="I59" s="6">
-        <v>0.00228938730573004</v>
+        <v>0.006010152</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6">
-        <v>28.5</v>
+        <v>11.4</v>
       </c>
       <c r="B60" s="6">
-        <v>0.0702460718008522</v>
+        <v>0.115024051</v>
       </c>
       <c r="C60" s="1">
-        <v>0.762799792</v>
+        <v>0.515287632</v>
       </c>
       <c r="D60" s="1">
-        <v>0.40621909</v>
+        <v>0.336129975</v>
       </c>
       <c r="E60" s="1">
-        <v>0.085304504</v>
+        <v>0.477975118</v>
       </c>
       <c r="F60">
-        <v>-0.27527571</v>
+        <v>-0.297273884</v>
       </c>
       <c r="G60" s="6">
-        <v>0.0741830909124735</v>
+        <v>0.088662963</v>
       </c>
       <c r="H60" s="6">
-        <v>0.00834383165119741</v>
+        <v>0.004640319</v>
       </c>
       <c r="I60" s="6">
-        <v>0.0026098898278936</v>
+        <v>0.010142047</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6">
-        <v>29</v>
+        <v>11.6</v>
       </c>
       <c r="B61" s="6">
-        <v>0.380678836718618</v>
+        <v>0.210965341</v>
       </c>
       <c r="C61" s="1">
-        <v>0.408762685</v>
+        <v>0.429275179</v>
       </c>
       <c r="D61" s="1">
-        <v>0.450664268</v>
+        <v>0.443514333</v>
       </c>
       <c r="E61" s="1">
-        <v>0.092511574</v>
+        <v>0.592422987</v>
       </c>
       <c r="F61">
-        <v>-0.242103196</v>
+        <v>-0.27788477</v>
       </c>
       <c r="G61" s="6">
-        <v>0.0524901044397485</v>
+        <v>0.104093635</v>
       </c>
       <c r="H61" s="6">
-        <v>0.00964909217552511</v>
+        <v>0.007033779</v>
       </c>
       <c r="I61" s="6">
-        <v>0.00266853513028121</v>
+        <v>0.01390834</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6">
-        <v>29.5</v>
+        <v>11.8</v>
       </c>
       <c r="B62" s="6">
-        <v>0.436085328701335</v>
+        <v>0.281557079</v>
       </c>
       <c r="C62" s="1">
-        <v>-0.197486825</v>
+        <v>0.266346606</v>
       </c>
       <c r="D62" s="1">
-        <v>0.498722093</v>
+        <v>0.570911668</v>
       </c>
       <c r="E62" s="1">
-        <v>0.099660075</v>
+        <v>0.67403297</v>
       </c>
       <c r="F62">
-        <v>-0.226685007</v>
+        <v>-0.256028991</v>
       </c>
       <c r="G62" s="6">
-        <v>0.00784208676426651</v>
+        <v>0.113710138</v>
       </c>
       <c r="H62" s="6">
-        <v>0.0111024793553414</v>
+        <v>0.010316999</v>
       </c>
       <c r="I62" s="6">
-        <v>0.00319631852320254</v>
+        <v>0.019025846</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B63" s="6">
-        <v>0.206852353311866</v>
+        <v>0.314871537</v>
       </c>
       <c r="C63" s="1">
-        <v>-0.665240535</v>
+        <v>0.064576276</v>
       </c>
       <c r="D63" s="1">
-        <v>0.550205207</v>
+        <v>0.709354347</v>
       </c>
       <c r="E63" s="1">
-        <v>0.106089474</v>
+        <v>0.699252385</v>
       </c>
       <c r="F63">
-        <v>-0.232916123</v>
+        <v>-0.232615365</v>
       </c>
       <c r="G63" s="6">
-        <v>-0.0290049116689242</v>
+        <v>0.120032308</v>
       </c>
       <c r="H63" s="6">
-        <v>0.0127955890984388</v>
+        <v>0.014589889</v>
       </c>
       <c r="I63" s="6">
-        <v>0.00344132476942879</v>
+        <v>0.023612011</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6">
-        <v>30.5</v>
+        <v>12.2</v>
       </c>
       <c r="B64" s="6">
-        <v>-0.155211045761424</v>
+        <v>0.308533992</v>
       </c>
       <c r="C64" s="1">
-        <v>-0.699261438</v>
+        <v>-0.119736941</v>
       </c>
       <c r="D64" s="1">
-        <v>0.604562779</v>
+        <v>0.845680045</v>
       </c>
       <c r="E64" s="1">
-        <v>0.11102978</v>
+        <v>0.650932699</v>
       </c>
       <c r="F64">
-        <v>-0.250347143</v>
+        <v>-0.208176421</v>
       </c>
       <c r="G64" s="6">
-        <v>-0.0345533168770244</v>
+        <v>0.123817066</v>
       </c>
       <c r="H64" s="6">
-        <v>0.0144190768401677</v>
+        <v>0.019814198</v>
       </c>
       <c r="I64" s="6">
-        <v>0.00300988362934401</v>
+        <v>0.02878844</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6">
-        <v>31</v>
+        <v>12.4</v>
       </c>
       <c r="B65" s="6">
-        <v>-0.415174813699589</v>
+        <v>0.27238118</v>
       </c>
       <c r="C65" s="1">
-        <v>-0.280223364</v>
+        <v>-0.223413422</v>
       </c>
       <c r="D65" s="1">
-        <v>0.660878047</v>
+        <v>0.964482608</v>
       </c>
       <c r="E65" s="1">
-        <v>0.113846432</v>
+        <v>0.524390761</v>
       </c>
       <c r="F65">
-        <v>-0.261704641</v>
+        <v>-0.183467768</v>
       </c>
       <c r="G65" s="6">
-        <v>-0.0062768857146775</v>
+        <v>0.121725669</v>
       </c>
       <c r="H65" s="6">
-        <v>0.01588125087541</v>
+        <v>0.026043878</v>
       </c>
       <c r="I65" s="6">
-        <v>0.00299147035721684</v>
+        <v>0.032983519</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6">
-        <v>31.5</v>
+        <v>12.6</v>
       </c>
       <c r="B66" s="6">
-        <v>-0.403845208299664</v>
+        <v>0.227835313</v>
       </c>
       <c r="C66" s="1">
-        <v>0.323927025</v>
+        <v>-0.198940614</v>
       </c>
       <c r="D66" s="1">
-        <v>0.718028722</v>
+        <v>1.050790653</v>
       </c>
       <c r="E66" s="1">
-        <v>0.11440063</v>
+        <v>0.328647522</v>
       </c>
       <c r="F66">
-        <v>-0.254061447</v>
+        <v>-0.16040262</v>
       </c>
       <c r="G66" s="6">
-        <v>0.0370551995412132</v>
+        <v>0.105918932</v>
       </c>
       <c r="H66" s="6">
-        <v>0.0175162787890143</v>
+        <v>0.032637072</v>
       </c>
       <c r="I66" s="6">
-        <v>0.0035317771787867</v>
+        <v>0.031472861</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6">
-        <v>32</v>
+        <v>12.8</v>
       </c>
       <c r="B67" s="6">
-        <v>-0.12612605282443</v>
+        <v>0.201042901</v>
       </c>
       <c r="C67" s="1">
-        <v>0.723226434</v>
+        <v>-0.053926841</v>
       </c>
       <c r="D67" s="1">
-        <v>0.774967407</v>
+        <v>1.092862217</v>
       </c>
       <c r="E67" s="1">
-        <v>0.113089221</v>
+        <v>0.087203264</v>
       </c>
       <c r="F67">
-        <v>-0.226786823</v>
+        <v>-0.142494406</v>
       </c>
       <c r="G67" s="6">
-        <v>0.0679092484337417</v>
+        <v>0.069455733</v>
       </c>
       <c r="H67" s="6">
-        <v>0.0192605811247815</v>
+        <v>0.037729892</v>
       </c>
       <c r="I67" s="6">
-        <v>0.00323126520513741</v>
+        <v>0.016577224</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="6">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="B68" s="6">
-        <v>0.239070027756034</v>
+        <v>0.208629001</v>
       </c>
       <c r="C68" s="1">
-        <v>0.65149921</v>
+        <v>0.125608791</v>
       </c>
       <c r="D68" s="1">
-        <v>0.830884107</v>
+        <v>1.085060093</v>
       </c>
       <c r="E68" s="1">
-        <v>0.110354087</v>
+        <v>-0.163335575</v>
       </c>
       <c r="F68">
-        <v>-0.191363253</v>
+        <v>-0.133990889</v>
       </c>
       <c r="G68" s="6">
-        <v>0.0682674621641793</v>
+        <v>0.012838957</v>
       </c>
       <c r="H68" s="6">
-        <v>0.0206450548190178</v>
+        <v>0.038309745</v>
       </c>
       <c r="I68" s="6">
-        <v>0.0024099968095422</v>
+        <v>-0.011621747</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="6">
-        <v>33</v>
+        <v>13.2</v>
       </c>
       <c r="B69" s="6">
-        <v>0.450878516554726</v>
+        <v>0.246132946</v>
       </c>
       <c r="C69" s="1">
-        <v>0.143375435</v>
+        <v>0.230193294</v>
       </c>
       <c r="D69" s="1">
-        <v>0.885068713</v>
+        <v>1.029537299</v>
       </c>
       <c r="E69" s="1">
-        <v>0.106074502</v>
+        <v>-0.384118264</v>
       </c>
       <c r="F69">
-        <v>-0.163216209</v>
+        <v>-0.137928752</v>
       </c>
       <c r="G69" s="6">
-        <v>0.0410586433220845</v>
+        <v>-0.051977886</v>
       </c>
       <c r="H69" s="6">
-        <v>0.0219804220372756</v>
+        <v>0.033701022</v>
       </c>
       <c r="I69" s="6">
-        <v>0.00334403750694717</v>
+        <v>-0.031041623</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="6">
-        <v>33.5</v>
+        <v>13.4</v>
       </c>
       <c r="B70" s="6">
-        <v>0.363508558915315</v>
+        <v>0.292104189</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.475095088</v>
+        <v>0.208211943</v>
       </c>
       <c r="D70" s="1">
-        <v>0.936556579</v>
+        <v>0.935358506</v>
       </c>
       <c r="E70" s="1">
-        <v>0.099367819</v>
+        <v>-0.546160627</v>
       </c>
       <c r="F70">
-        <v>-0.151575737</v>
+        <v>-0.153940047</v>
       </c>
       <c r="G70" s="6">
-        <v>0.00630816839617778</v>
+        <v>-0.10434481</v>
       </c>
       <c r="H70" s="6">
-        <v>0.024280099528197</v>
+        <v>0.02719371</v>
       </c>
       <c r="I70" s="6">
-        <v>0.00590259089940889</v>
+        <v>-0.03220451</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="6">
-        <v>34</v>
+        <v>13.6</v>
       </c>
       <c r="B71" s="6">
-        <v>0.0275795384135425</v>
+        <v>0.322096225</v>
       </c>
       <c r="C71" s="1">
-        <v>-0.789501163</v>
+        <v>0.07764076</v>
       </c>
       <c r="D71" s="1">
-        <v>0.983819156</v>
+        <v>0.816057139</v>
       </c>
       <c r="E71" s="1">
-        <v>0.088974253</v>
+        <v>-0.633928011</v>
       </c>
       <c r="F71">
-        <v>-0.154345799</v>
+        <v>-0.177790062</v>
       </c>
       <c r="G71" s="6">
-        <v>-0.0135453671587509</v>
+        <v>-0.129298078</v>
       </c>
       <c r="H71" s="6">
-        <v>0.0276514940975571</v>
+        <v>0.020974318</v>
       </c>
       <c r="I71" s="6">
-        <v>0.00714581236897979</v>
+        <v>-0.029956895</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="6">
-        <v>34.5</v>
+        <v>13.8</v>
       </c>
       <c r="B72" s="6">
-        <v>-0.335337897800421</v>
+        <v>0.319583002</v>
       </c>
       <c r="C72" s="1">
-        <v>-0.572832901</v>
+        <v>-0.106569039</v>
       </c>
       <c r="D72" s="1">
-        <v>1.024788466</v>
+        <v>0.686879581</v>
       </c>
       <c r="E72" s="1">
-        <v>0.074182237</v>
+        <v>-0.645633806</v>
       </c>
       <c r="F72">
-        <v>-0.160934086</v>
+        <v>-0.204015366</v>
       </c>
       <c r="G72" s="6">
-        <v>-0.00892392814923538</v>
+        <v>-0.129874281</v>
       </c>
       <c r="H72" s="6">
-        <v>0.0309486081720297</v>
+        <v>0.015520862</v>
       </c>
       <c r="I72" s="6">
-        <v>0.00561457374893809</v>
+        <v>-0.023528941</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="6">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B73" s="6">
-        <v>-0.476246257717753</v>
+        <v>0.279842666</v>
       </c>
       <c r="C73" s="1">
-        <v>0.047379058</v>
+        <v>-0.28555226</v>
       </c>
       <c r="D73" s="1">
-        <v>1.057396705</v>
+        <v>0.562334623</v>
       </c>
       <c r="E73" s="1">
-        <v>0.055819882</v>
+        <v>-0.589669009</v>
       </c>
       <c r="F73">
-        <v>-0.160459954</v>
+        <v>-0.228928804</v>
       </c>
       <c r="G73" s="6">
-        <v>0.0122478333161117</v>
+        <v>-0.118223911</v>
       </c>
       <c r="H73" s="6">
-        <v>0.0329388746044021</v>
+        <v>0.011549469</v>
       </c>
       <c r="I73" s="6">
-        <v>0.00211693035191217</v>
+        <v>-0.017296071</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="6">
-        <v>35.5</v>
+        <v>14.2</v>
       </c>
       <c r="B74" s="6">
-        <v>-0.289699283966857</v>
+        <v>0.208917934</v>
       </c>
       <c r="C74" s="1">
-        <v>0.65662173</v>
+        <v>-0.411926804</v>
       </c>
       <c r="D74" s="1">
-        <v>1.08040469</v>
+        <v>0.45438041</v>
       </c>
       <c r="E74" s="1">
-        <v>0.036239644</v>
+        <v>-0.483414813</v>
       </c>
       <c r="F74">
-        <v>-0.148764399</v>
+        <v>-0.251220693</v>
       </c>
       <c r="G74" s="6">
-        <v>0.0330649407179145</v>
+        <v>-0.105006101</v>
       </c>
       <c r="H74" s="6">
-        <v>0.0329442417889364</v>
+        <v>0.008363005</v>
       </c>
       <c r="I74" s="6">
-        <v>-0.00206715950619192</v>
+        <v>-0.013973488</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="6">
-        <v>36</v>
+        <v>14.4</v>
       </c>
       <c r="B75" s="6">
-        <v>0.105727812559629</v>
+        <v>0.12037787</v>
       </c>
       <c r="C75" s="1">
-        <v>0.828455336</v>
+        <v>-0.459595608</v>
       </c>
       <c r="D75" s="1">
-        <v>1.093849949</v>
+        <v>0.370827082</v>
       </c>
       <c r="E75" s="1">
-        <v>0.017882458</v>
+        <v>-0.348981066</v>
       </c>
       <c r="F75">
-        <v>-0.12989603</v>
+        <v>-0.270990445</v>
       </c>
       <c r="G75" s="6">
-        <v>0.0391849650870668</v>
+        <v>-0.092357175</v>
       </c>
       <c r="H75" s="6">
-        <v>0.0311388252024755</v>
+        <v>0.006209814</v>
       </c>
       <c r="I75" s="6">
-        <v>-0.00461375863463084</v>
+        <v>-0.007987103</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="6">
-        <v>36.5</v>
+        <v>14.6</v>
       </c>
       <c r="B76" s="6">
-        <v>0.440536634808379</v>
+        <v>0.030485323</v>
       </c>
       <c r="C76" s="1">
-        <v>0.425573615</v>
+        <v>-0.426678457</v>
       </c>
       <c r="D76" s="1">
-        <v>1.098648459</v>
+        <v>0.315551836</v>
       </c>
       <c r="E76" s="1">
-        <v>0.001622708</v>
+        <v>-0.202994857</v>
       </c>
       <c r="F76">
-        <v>-0.113025643</v>
+        <v>-0.287859184</v>
       </c>
       <c r="G76" s="6">
-        <v>0.0249829113321323</v>
+        <v>-0.075358484</v>
       </c>
       <c r="H76" s="6">
-        <v>0.0290751324805775</v>
+        <v>0.004819552</v>
       </c>
       <c r="I76" s="6">
-        <v>-0.00283431802148064</v>
+        <v>-0.005967674</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="6">
-        <v>37</v>
+        <v>14.8</v>
       </c>
       <c r="B77" s="6">
-        <v>0.477955473908342</v>
+        <v>-0.04586744</v>
       </c>
       <c r="C77" s="1">
-        <v>-0.28891436</v>
+        <v>-0.327790578</v>
       </c>
       <c r="D77" s="1">
-        <v>1.095653771</v>
+        <v>0.289650806</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.013578399</v>
+        <v>-0.056270022</v>
       </c>
       <c r="F77">
-        <v>-0.107524251</v>
+        <v>-0.300724684</v>
       </c>
       <c r="G77" s="6">
-        <v>-0.00451355913215066</v>
+        <v>-0.052252251</v>
       </c>
       <c r="H77" s="6">
-        <v>0.0288781736843582</v>
+        <v>0.004098105</v>
       </c>
       <c r="I77" s="6">
-        <v>0.002202912224367</v>
+        <v>-0.00109521</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="6">
-        <v>37.5</v>
+        <v>15</v>
       </c>
       <c r="B78" s="6">
-        <v>0.182683575248693</v>
+        <v>-0.097950107</v>
       </c>
       <c r="C78" s="1">
-        <v>-0.821021219</v>
+        <v>-0.188754901</v>
       </c>
       <c r="D78" s="1">
-        <v>1.084937075</v>
+        <v>0.292927756</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.029547583</v>
+        <v>0.088605963</v>
       </c>
       <c r="F78">
-        <v>-0.11761267</v>
+        <v>-0.308404033</v>
       </c>
       <c r="G78" s="6">
-        <v>-0.0343911891800493</v>
+        <v>-0.023957312</v>
       </c>
       <c r="H78" s="6">
-        <v>0.0309058472324751</v>
+        <v>0.004091896</v>
       </c>
       <c r="I78" s="6">
-        <v>0.00508503110719908</v>
+        <v>0.000634048</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="6">
-        <v>38</v>
+        <v>15.2</v>
       </c>
       <c r="B79" s="6">
-        <v>-0.246531240140146</v>
+        <v>-0.120632122</v>
       </c>
       <c r="C79" s="1">
-        <v>-0.788089408</v>
+        <v>-0.038629368</v>
       </c>
       <c r="D79" s="1">
-        <v>1.065800213</v>
+        <v>0.324822024</v>
       </c>
       <c r="E79" s="1">
-        <v>-0.047283643</v>
+        <v>0.229486703</v>
       </c>
       <c r="F79">
-        <v>-0.139191582</v>
+        <v>-0.310198623</v>
       </c>
       <c r="G79" s="6">
-        <v>-0.0482545322803521</v>
+        <v>0.006090873</v>
       </c>
       <c r="H79" s="6">
-        <v>0.0329945414295933</v>
+        <v>0.00458717</v>
       </c>
       <c r="I79" s="6">
-        <v>0.0024069120709976</v>
+        <v>0.0048552</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="6">
-        <v>38.5</v>
+        <v>15.4</v>
       </c>
       <c r="B80" s="6">
-        <v>-0.509923975170482</v>
+        <v>-0.11448067</v>
       </c>
       <c r="C80" s="1">
-        <v>-0.196881305</v>
+        <v>0.095682242</v>
       </c>
       <c r="D80" s="1">
-        <v>1.037498417</v>
+        <v>0.384269171</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.065889696</v>
+        <v>0.363233112</v>
       </c>
       <c r="F80">
-        <v>-0.161831412</v>
+        <v>-0.305988171</v>
       </c>
       <c r="G80" s="6">
-        <v>-0.0383149495232396</v>
+        <v>0.035776391</v>
       </c>
       <c r="H80" s="6">
-        <v>0.0328336807610454</v>
+        <v>0.005884653</v>
       </c>
       <c r="I80" s="6">
-        <v>-0.00308471696794435</v>
+        <v>0.007677888</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="6">
-        <v>39</v>
+        <v>15.6</v>
       </c>
       <c r="B81" s="6">
-        <v>-0.417314176286312</v>
+        <v>-0.084580504</v>
       </c>
       <c r="C81" s="1">
-        <v>0.546497446</v>
+        <v>0.197126302</v>
       </c>
       <c r="D81" s="1">
-        <v>1.000181984</v>
+        <v>0.468967987</v>
       </c>
       <c r="E81" s="1">
-        <v>-0.082870363</v>
+        <v>0.479606712</v>
       </c>
       <c r="F81">
-        <v>-0.174262163</v>
+        <v>-0.296045846</v>
       </c>
       <c r="G81" s="6">
-        <v>-0.00944260865365989</v>
+        <v>0.063224559</v>
       </c>
       <c r="H81" s="6">
-        <v>0.0302167638104505</v>
+        <v>0.007830862</v>
       </c>
       <c r="I81" s="6">
-        <v>-0.00688301708461835</v>
+        <v>0.012442394</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="6">
-        <v>39.5</v>
+        <v>15.8</v>
       </c>
       <c r="B82" s="6">
-        <v>-0.0272139520397275</v>
+        <v>-0.03807409</v>
       </c>
       <c r="C82" s="1">
-        <v>0.916486092</v>
+        <v>0.262443052</v>
       </c>
       <c r="D82" s="1">
-        <v>0.955308268</v>
+        <v>0.573868283</v>
       </c>
       <c r="E82" s="1">
-        <v>-0.095837203</v>
+        <v>0.562164146</v>
       </c>
       <c r="F82">
-        <v>-0.17132523</v>
+        <v>-0.280833103</v>
       </c>
       <c r="G82" s="6">
-        <v>0.0188431279512046</v>
+        <v>0.088612518</v>
       </c>
       <c r="H82" s="6">
-        <v>0.0264562426375878</v>
+        <v>0.010808774</v>
       </c>
       <c r="I82" s="6">
-        <v>-0.00769316987431028</v>
+        <v>0.016798065</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="6">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B83" s="6">
-        <v>0.389266256405593</v>
+        <v>0.018712961</v>
       </c>
       <c r="C83" s="1">
-        <v>0.643607696</v>
+        <v>0.302724524</v>
       </c>
       <c r="D83" s="1">
-        <v>0.905126966</v>
+        <v>0.690267555</v>
       </c>
       <c r="E83" s="1">
-        <v>-0.10417586</v>
+        <v>0.591443778</v>
       </c>
       <c r="F83">
-        <v>-0.159858974</v>
+        <v>-0.260716128</v>
       </c>
       <c r="G83" s="6">
-        <v>0.021079785823415</v>
+        <v>0.112299736</v>
       </c>
       <c r="H83" s="6">
-        <v>0.0229742019564705</v>
+        <v>0.014549783</v>
       </c>
       <c r="I83" s="6">
-        <v>-0.00579411998506509</v>
+        <v>0.020974707</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="6">
-        <v>40.5</v>
+        <v>16.2</v>
       </c>
       <c r="B84" s="6">
-        <v>0.537939407258774</v>
+        <v>0.082505533</v>
       </c>
       <c r="C84" s="1">
-        <v>-0.088030354</v>
+        <v>0.335065667</v>
       </c>
       <c r="D84" s="1">
-        <v>0.851716934</v>
+        <v>0.805941967</v>
       </c>
       <c r="E84" s="1">
-        <v>-0.109015204</v>
+        <v>0.553625367</v>
       </c>
       <c r="F84">
-        <v>-0.156306114</v>
+        <v>-0.236033754</v>
       </c>
       <c r="G84" s="6">
-        <v>-0.0119733572259168</v>
+        <v>0.133966832</v>
       </c>
       <c r="H84" s="6">
-        <v>0.0209745623413448</v>
+        <v>0.01913459</v>
       </c>
       <c r="I84" s="6">
-        <v>-0.00216497102467023</v>
+        <v>0.024111264</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="6">
-        <v>41</v>
+        <v>16.4</v>
       </c>
       <c r="B85" s="6">
-        <v>0.310274043718933</v>
+        <v>0.152830246</v>
       </c>
       <c r="C85" s="1">
-        <v>-0.76661</v>
+        <v>0.368011759</v>
       </c>
       <c r="D85" s="1">
-        <v>0.79645023</v>
+        <v>0.907170095</v>
       </c>
       <c r="E85" s="1">
-        <v>-0.111792501</v>
+        <v>0.448108693</v>
       </c>
       <c r="F85">
-        <v>-0.174560523</v>
+        <v>-0.207618778</v>
       </c>
       <c r="G85" s="6">
-        <v>-0.0607719584237684</v>
+        <v>0.148088124</v>
       </c>
       <c r="H85" s="6">
-        <v>0.0204413816961349</v>
+        <v>0.023907473</v>
       </c>
       <c r="I85" s="6">
-        <v>-0.000681585490208029</v>
+        <v>0.023161413</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="6">
-        <v>41.5</v>
+        <v>16.6</v>
       </c>
       <c r="B86" s="6">
-        <v>-0.137666303255857</v>
+        <v>0.228954491</v>
       </c>
       <c r="C86" s="1">
-        <v>-0.91273924</v>
+        <v>0.388836955</v>
       </c>
       <c r="D86" s="1">
-        <v>0.740154121</v>
+        <v>0.981592524</v>
       </c>
       <c r="E86" s="1">
-        <v>-0.113162677</v>
+        <v>0.289088795</v>
       </c>
       <c r="F86">
-        <v>-0.213604314</v>
+        <v>-0.178030766</v>
       </c>
       <c r="G86" s="6">
-        <v>-0.0891056355868879</v>
+        <v>0.143768243</v>
       </c>
       <c r="H86" s="6">
-        <v>0.0195686661891157</v>
+        <v>0.028155944</v>
       </c>
       <c r="I86" s="6">
-        <v>-0.00325995533449978</v>
+        <v>0.018292223</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="6">
-        <v>42</v>
+        <v>16.8</v>
       </c>
       <c r="B87" s="6">
-        <v>-0.49314225447294</v>
+        <v>0.305386009</v>
       </c>
       <c r="C87" s="1">
-        <v>-0.419376777</v>
+        <v>0.365182261</v>
       </c>
       <c r="D87" s="1">
-        <v>0.683547129</v>
+        <v>1.0209059</v>
       </c>
       <c r="E87" s="1">
-        <v>-0.112964774</v>
+        <v>0.101615818</v>
       </c>
       <c r="F87">
-        <v>-0.255768298</v>
+        <v>-0.151987019</v>
       </c>
       <c r="G87" s="6">
-        <v>-0.0712117888619691</v>
+        <v>0.111671846</v>
       </c>
       <c r="H87" s="6">
-        <v>0.0172369133369199</v>
+        <v>0.030770004</v>
       </c>
       <c r="I87" s="6">
-        <v>-0.00556687445254071</v>
+        <v>0.007101346</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="6">
-        <v>42.5</v>
+        <v>17</v>
       </c>
       <c r="B88" s="6">
-        <v>-0.506407939946717</v>
+        <v>0.37023513</v>
       </c>
       <c r="C88" s="1">
-        <v>0.370197436</v>
+        <v>0.270837542</v>
       </c>
       <c r="D88" s="1">
-        <v>0.627530185</v>
+        <v>1.022147294</v>
       </c>
       <c r="E88" s="1">
-        <v>-0.110733514</v>
+        <v>-0.087388014</v>
       </c>
       <c r="F88">
-        <v>-0.278007114</v>
+        <v>-0.135194617</v>
       </c>
       <c r="G88" s="6">
-        <v>-0.0137043964547733</v>
+        <v>0.052589512</v>
       </c>
       <c r="H88" s="6">
-        <v>0.0146008426442104</v>
+        <v>0.030997055</v>
       </c>
       <c r="I88" s="6">
-        <v>-0.00454364876859616</v>
+        <v>-0.004245951</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="6">
-        <v>43</v>
+        <v>17.2</v>
       </c>
       <c r="B89" s="6">
-        <v>-0.166664101216323</v>
+        <v>0.409303982</v>
       </c>
       <c r="C89" s="1">
-        <v>0.903972964</v>
+        <v>0.111332602</v>
       </c>
       <c r="D89" s="1">
-        <v>0.573180625</v>
+        <v>0.987382921</v>
       </c>
       <c r="E89" s="1">
-        <v>-0.106325786</v>
+        <v>-0.255091222</v>
       </c>
       <c r="F89">
-        <v>-0.269400319</v>
+        <v>-0.131827221</v>
       </c>
       <c r="G89" s="6">
-        <v>0.0440983610366877</v>
+        <v>-0.019463996</v>
       </c>
       <c r="H89" s="6">
-        <v>0.0127800163368242</v>
+        <v>0.029338071</v>
       </c>
       <c r="I89" s="6">
-        <v>-0.00293213285829329</v>
+        <v>-0.011837902</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="6">
-        <v>43.5</v>
+        <v>17.4</v>
       </c>
       <c r="B90" s="6">
-        <v>0.290010486845546</v>
+        <v>0.412768052</v>
       </c>
       <c r="C90" s="1">
-        <v>0.808412695</v>
+        <v>-0.077997582</v>
       </c>
       <c r="D90" s="1">
-        <v>0.521481998</v>
+        <v>0.922711443</v>
       </c>
       <c r="E90" s="1">
-        <v>-0.100265127</v>
+        <v>-0.38393508</v>
       </c>
       <c r="F90">
-        <v>-0.241193427</v>
+        <v>-0.142559116</v>
       </c>
       <c r="G90" s="6">
-        <v>0.0593331404744904</v>
+        <v>-0.085371883</v>
       </c>
       <c r="H90" s="6">
-        <v>0.0114513223095754</v>
+        <v>0.026394326</v>
       </c>
       <c r="I90" s="6">
-        <v>-0.00247633703241566</v>
+        <v>-0.017299462</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="6">
-        <v>44</v>
+        <v>17.6</v>
       </c>
       <c r="B91" s="6">
-        <v>0.545369722929434</v>
+        <v>0.378932098</v>
       </c>
       <c r="C91" s="1">
-        <v>0.148901231</v>
+        <v>-0.255378058</v>
       </c>
       <c r="D91" s="1">
-        <v>0.473045981</v>
+        <v>0.837264957</v>
       </c>
       <c r="E91" s="1">
-        <v>-0.093409687</v>
+        <v>-0.461121227</v>
       </c>
       <c r="F91">
-        <v>-0.219444992</v>
+        <v>-0.164553459</v>
       </c>
       <c r="G91" s="6">
-        <v>0.0197661238144697</v>
+        <v>-0.130211798</v>
       </c>
       <c r="H91" s="6">
-        <v>0.0103599058586859</v>
+        <v>0.022593216</v>
       </c>
       <c r="I91" s="6">
-        <v>-0.00179042849116853</v>
+        <v>-0.02014272</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="6">
-        <v>44.5</v>
+        <v>17.8</v>
       </c>
       <c r="B92" s="6">
-        <v>0.420891010138779</v>
+        <v>0.313475472</v>
       </c>
       <c r="C92" s="1">
-        <v>-0.616047156</v>
+        <v>-0.390322704</v>
       </c>
       <c r="D92" s="1">
-        <v>0.428103874</v>
+        <v>0.742196058</v>
       </c>
       <c r="E92" s="1">
-        <v>-0.086351692</v>
+        <v>-0.479589523</v>
       </c>
       <c r="F92">
-        <v>-0.22601924</v>
+        <v>-0.192754638</v>
       </c>
       <c r="G92" s="6">
-        <v>-0.0465904633312372</v>
+        <v>-0.147035642</v>
       </c>
       <c r="H92" s="6">
-        <v>0.00961800483612897</v>
+        <v>0.018564105</v>
       </c>
       <c r="I92" s="6">
-        <v>-0.00140262507754236</v>
+        <v>-0.019661823</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="6">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B93" s="6">
-        <v>0.00227668131649589</v>
+        <v>0.226829125</v>
       </c>
       <c r="C93" s="1">
-        <v>-0.954070497</v>
+        <v>-0.465159017</v>
       </c>
       <c r="D93" s="1">
-        <v>0.38668647</v>
+        <v>0.649293323</v>
       </c>
       <c r="E93" s="1">
-        <v>-0.079339719</v>
+        <v>-0.440404481</v>
       </c>
       <c r="F93">
-        <v>-0.262293812</v>
+        <v>-0.221639791</v>
       </c>
       <c r="G93" s="6">
-        <v>-0.0910162818292864</v>
+        <v>-0.138214695</v>
       </c>
       <c r="H93" s="6">
-        <v>0.0086781585295862</v>
+        <v>0.014888302</v>
       </c>
       <c r="I93" s="6">
-        <v>-0.00253266142946067</v>
+        <v>-0.016755322</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="6">
-        <v>45.5</v>
+        <v>18.2</v>
       </c>
       <c r="B94" s="6">
-        <v>-0.419916866331241</v>
+        <v>0.131996626</v>
       </c>
       <c r="C94" s="1">
-        <v>-0.62930036</v>
+        <v>-0.471558726</v>
       </c>
       <c r="D94" s="1">
-        <v>0.348729049</v>
+        <v>0.569239007</v>
       </c>
       <c r="E94" s="1">
-        <v>-0.072534847</v>
+        <v>-0.353341992</v>
       </c>
       <c r="F94">
-        <v>-0.307398251</v>
+        <v>-0.246976565</v>
       </c>
       <c r="G94" s="6">
-        <v>-0.0790721675298797</v>
+        <v>-0.113434364</v>
       </c>
       <c r="H94" s="6">
-        <v>0.00716279507254222</v>
+        <v>0.011963395</v>
       </c>
       <c r="I94" s="6">
-        <v>-0.00321978601681076</v>
+        <v>-0.012378638</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="6">
-        <v>46</v>
+        <v>18.4</v>
       </c>
       <c r="B95" s="6">
-        <v>-0.552170511641908</v>
+        <v>0.042676851</v>
       </c>
       <c r="C95" s="1">
-        <v>0.133505173</v>
+        <v>-0.41130052</v>
       </c>
       <c r="D95" s="1">
-        <v>0.314107947</v>
+        <v>0.510120309</v>
       </c>
       <c r="E95" s="1">
-        <v>-0.065983503</v>
+        <v>-0.23385763</v>
       </c>
       <c r="F95">
-        <v>-0.332653977</v>
+        <v>-0.266629946</v>
       </c>
       <c r="G95" s="6">
-        <v>-0.0162269523548401</v>
+        <v>-0.082704554</v>
       </c>
       <c r="H95" s="6">
-        <v>0.0058109376703654</v>
+        <v>0.009934646</v>
       </c>
       <c r="I95" s="6">
-        <v>-0.00194509028948816</v>
+        <v>-0.007949016</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="6">
-        <v>46.5</v>
+        <v>18.6</v>
       </c>
       <c r="B96" s="6">
-        <v>-0.301982368710262</v>
+        <v>-0.028959702</v>
       </c>
       <c r="C96" s="1">
-        <v>0.805173063</v>
+        <v>-0.297916102</v>
       </c>
       <c r="D96" s="1">
-        <v>0.282728702</v>
+        <v>0.47674759</v>
       </c>
       <c r="E96" s="1">
-        <v>-0.059534371</v>
+        <v>-0.09849524</v>
       </c>
       <c r="F96">
-        <v>-0.322225107</v>
+        <v>-0.28000446</v>
       </c>
       <c r="G96" s="6">
-        <v>0.0547696210179237</v>
+        <v>-0.051005862</v>
       </c>
       <c r="H96" s="6">
-        <v>0.0052308000810084</v>
+        <v>0.008783247</v>
       </c>
       <c r="I96" s="6">
-        <v>-0.000563873162223566</v>
+        <v>-0.00356865</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="6">
-        <v>47</v>
+        <v>18.8</v>
       </c>
       <c r="B97" s="6">
-        <v>0.157735267885792</v>
+        <v>-0.0744657</v>
       </c>
       <c r="C97" s="1">
-        <v>0.91930578</v>
+        <v>-0.154259832</v>
       </c>
       <c r="D97" s="1">
-        <v>0.254578277</v>
+        <v>0.470839605</v>
       </c>
       <c r="E97" s="1">
-        <v>-0.053067127</v>
+        <v>0.038721476</v>
       </c>
       <c r="F97">
-        <v>-0.284961487</v>
+        <v>-0.287014415</v>
       </c>
       <c r="G97" s="6">
-        <v>0.0843610010353396</v>
+        <v>-0.019049088</v>
       </c>
       <c r="H97" s="6">
-        <v>0.00501018087923944</v>
+        <v>0.008481179</v>
       </c>
       <c r="I97" s="6">
-        <v>-0.000491227944112024</v>
+        <v>0.00046289</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="6">
-        <v>47.5</v>
+        <v>19</v>
       </c>
       <c r="B98" s="6">
-        <v>0.508377594425918</v>
+        <v>-0.090360348</v>
       </c>
       <c r="C98" s="1">
-        <v>0.395874229</v>
+        <v>-0.005917515</v>
       </c>
       <c r="D98" s="1">
-        <v>0.22964355</v>
+        <v>0.491597784</v>
       </c>
       <c r="E98" s="1">
-        <v>-0.046714162</v>
+        <v>0.166390791</v>
       </c>
       <c r="F98">
-        <v>-0.248480721</v>
+        <v>-0.287634176</v>
       </c>
       <c r="G98" s="6">
-        <v>0.0518367276379039</v>
+        <v>0.012710646</v>
       </c>
       <c r="H98" s="6">
-        <v>0.00470400381411447</v>
+        <v>0.008960652</v>
       </c>
       <c r="I98" s="6">
-        <v>-0.000665527041762279</v>
+        <v>0.004358617</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="6">
-        <v>48</v>
+        <v>19.2</v>
       </c>
       <c r="B99" s="6">
-        <v>0.506571324707666</v>
+        <v>-0.077990255</v>
       </c>
       <c r="C99" s="1">
-        <v>-0.402814747</v>
+        <v>0.125345178</v>
       </c>
       <c r="D99" s="1">
-        <v>0.207793407</v>
+        <v>0.536060337</v>
       </c>
       <c r="E99" s="1">
-        <v>-0.040785451</v>
+        <v>0.274006344</v>
       </c>
       <c r="F99">
-        <v>-0.239846256</v>
+        <v>-0.282049423</v>
       </c>
       <c r="G99" s="6">
-        <v>-0.0200056636948498</v>
+        <v>0.042669773</v>
       </c>
       <c r="H99" s="6">
-        <v>0.00440107600839512</v>
+        <v>0.010217122</v>
       </c>
       <c r="I99" s="6">
-        <v>-0.000565616702443826</v>
+        <v>0.008133749</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="6">
-        <v>48.5</v>
+        <v>19.4</v>
       </c>
       <c r="B100" s="6">
-        <v>0.153141743995634</v>
+        <v>-0.042293774</v>
       </c>
       <c r="C100" s="1">
-        <v>-0.923040752</v>
+        <v>0.225850599</v>
       </c>
       <c r="D100" s="1">
-        <v>0.188733409</v>
+        <v>0.599143291</v>
       </c>
       <c r="E100" s="1">
-        <v>-0.035600907</v>
+        <v>0.350783294</v>
       </c>
       <c r="F100">
-        <v>-0.266575748</v>
+        <v>-0.270817336</v>
       </c>
       <c r="G100" s="6">
-        <v>-0.0806580567775294</v>
+        <v>0.068884246</v>
       </c>
       <c r="H100" s="6">
-        <v>0.00404371097854697</v>
+        <v>0.012188705</v>
       </c>
       <c r="I100" s="6">
-        <v>-0.000971971006488086</v>
+        <v>0.011533734</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="6">
-        <v>49</v>
+        <v>19.6</v>
       </c>
       <c r="B101" s="6">
-        <v>-0.307173757003968</v>
+        <v>0.00997201</v>
       </c>
       <c r="C101" s="1">
-        <v>-0.803639083</v>
+        <v>0.290903831</v>
       </c>
       <c r="D101" s="1">
-        <v>0.172035924</v>
+        <v>0.673642744</v>
       </c>
       <c r="E101" s="1">
-        <v>-0.031343808</v>
+        <v>0.386727563</v>
       </c>
       <c r="F101">
-        <v>-0.311247652</v>
+        <v>-0.254847099</v>
       </c>
       <c r="G101" s="6">
-        <v>-0.0871434934640614</v>
+        <v>0.089825257</v>
       </c>
       <c r="H101" s="6">
-        <v>0.00341065030336945</v>
+        <v>0.014788767</v>
       </c>
       <c r="I101" s="6">
-        <v>-0.0014604247542508</v>
+        <v>0.014274242</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="6">
-        <v>49.5</v>
+        <v>19.8</v>
       </c>
       <c r="B102" s="6">
-        <v>-0.555243171208366</v>
+        <v>0.071805081</v>
       </c>
       <c r="C102" s="1">
-        <v>-0.126796766</v>
+        <v>0.322061732</v>
       </c>
       <c r="D102" s="1">
-        <v>0.157259021</v>
+        <v>0.750689138</v>
       </c>
       <c r="E102" s="1">
-        <v>-0.027855384</v>
+        <v>0.375728137</v>
       </c>
       <c r="F102">
-        <v>-0.343558459</v>
+        <v>-0.23534788</v>
       </c>
       <c r="G102" s="6">
-        <v>-0.0341826849667245</v>
+        <v>0.103810561</v>
       </c>
       <c r="H102" s="6">
-        <v>0.00275209528229528</v>
+        <v>0.01780045</v>
       </c>
       <c r="I102" s="6">
-        <v>-0.00100907588214663</v>
+        <v>0.015576161</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B103" s="6">
-        <v>-0.418838369764475</v>
+        <v>0.136743072</v>
       </c>
       <c r="C103" s="1">
-        <v>0.638590924</v>
+        <v>0.322316726</v>
       </c>
       <c r="D103" s="1">
-        <v>0.144142344</v>
+        <v>0.820831317</v>
       </c>
       <c r="E103" s="1">
-        <v>-0.024594858</v>
+        <v>0.318459205</v>
       </c>
       <c r="F103">
-        <v>-0.341483624</v>
+        <v>-0.213975146</v>
       </c>
       <c r="G103" s="6">
-        <v>0.0418608195022331</v>
+        <v>0.10797576</v>
       </c>
       <c r="H103" s="6">
-        <v>0.00246970385371135</v>
+        <v>0.020896963</v>
       </c>
       <c r="I103" s="6">
-        <v>-0.000167663770110373</v>
+        <v>0.015017483</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="6">
-        <v>50.5</v>
+        <v>20.2</v>
       </c>
       <c r="B104" s="6">
-        <v>0.00781156793556516</v>
+        <v>0.198723192</v>
       </c>
       <c r="C104" s="1">
-        <v>0.961912763</v>
+        <v>0.292381202</v>
       </c>
       <c r="D104" s="1">
-        <v>0.132722976</v>
+        <v>0.875534423</v>
       </c>
       <c r="E104" s="1">
-        <v>-0.020997514</v>
+        <v>0.22331465</v>
       </c>
       <c r="F104">
-        <v>-0.306763683</v>
+        <v>-0.193061565</v>
       </c>
       <c r="G104" s="6">
-        <v>0.0882563129888545</v>
+        <v>0.098623963</v>
       </c>
       <c r="H104" s="6">
-        <v>0.00246875407297757</v>
+        <v>0.023640232</v>
       </c>
       <c r="I104" s="6">
-        <v>3.96983004959553e-5</v>
+        <v>0.012000193</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="6">
-        <v>51</v>
+        <v>20.4</v>
       </c>
       <c r="B105" s="6">
-        <v>0.429193288572652</v>
+        <v>0.251635487</v>
       </c>
       <c r="C105" s="1">
-        <v>0.618771795</v>
+        <v>0.231671414</v>
       </c>
       <c r="D105" s="1">
-        <v>0.123227064</v>
+        <v>0.908576806</v>
       </c>
       <c r="E105" s="1">
-        <v>-0.016925646</v>
+        <v>0.104551064</v>
       </c>
       <c r="F105">
-        <v>-0.263800522</v>
+        <v>-0.175587814</v>
       </c>
       <c r="G105" s="6">
-        <v>0.0727787581549307</v>
+        <v>0.073497102</v>
       </c>
       <c r="H105" s="6">
-        <v>0.00244722579001453</v>
+        <v>0.025557294</v>
       </c>
       <c r="I105" s="6">
-        <v>-0.000115647914508168</v>
+        <v>0.006902613</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="6">
-        <v>51.5</v>
+        <v>20.6</v>
       </c>
       <c r="B106" s="6">
-        <v>0.553294084172272</v>
+        <v>0.289529829</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.153274444</v>
+        <v>0.143321273</v>
       </c>
       <c r="D106" s="1">
-        <v>0.115814873</v>
+        <v>0.916907077</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.0127561</v>
+        <v>-0.020947549</v>
       </c>
       <c r="F106">
-        <v>-0.242717772</v>
+        <v>-0.164582992</v>
       </c>
       <c r="G106" s="6">
-        <v>0.0061986239870425</v>
+        <v>0.034748156</v>
       </c>
       <c r="H106" s="6">
-        <v>0.00239387189008481</v>
+        <v>0.026330175</v>
       </c>
       <c r="I106" s="6">
-        <v>-7.14425896041967e-5</v>
+        <v>0.000748736</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="6">
-        <v>52</v>
+        <v>20.8</v>
       </c>
       <c r="B107" s="6">
-        <v>0.294036765915393</v>
+        <v>0.307835824</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.819286491</v>
+        <v>0.038272715</v>
       </c>
       <c r="D107" s="1">
-        <v>0.110387081</v>
+        <v>0.900854114</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.009083056</v>
+        <v>-0.136679812</v>
       </c>
       <c r="F107">
-        <v>-0.258421922</v>
+        <v>-0.162122493</v>
       </c>
       <c r="G107" s="6">
-        <v>-0.0651791729364929</v>
+        <v>-0.010415599</v>
       </c>
       <c r="H107" s="6">
-        <v>0.00234938268969248</v>
+        <v>0.025870666</v>
       </c>
       <c r="I107" s="6">
-        <v>-0.000174934349628979</v>
+        <v>-0.005205502</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="6">
-        <v>52.5</v>
+        <v>21</v>
       </c>
       <c r="B108" s="6">
-        <v>-0.169010733018973</v>
+        <v>0.304863129</v>
       </c>
       <c r="C108" s="1">
-        <v>-0.917733026</v>
+        <v>-0.066416378</v>
       </c>
       <c r="D108" s="1">
-        <v>0.106578989</v>
+        <v>0.863842388</v>
       </c>
       <c r="E108" s="1">
-        <v>-0.006309285</v>
+        <v>-0.228419804</v>
       </c>
       <c r="F108">
-        <v>-0.300229543</v>
+        <v>-0.168516018</v>
       </c>
       <c r="G108" s="6">
-        <v>-0.0916873468554226</v>
+        <v>-0.052119545</v>
       </c>
       <c r="H108" s="6">
-        <v>0.00216529268341324</v>
+        <v>0.024330884</v>
       </c>
       <c r="I108" s="6">
-        <v>-0.000560626993868582</v>
+        <v>-0.009935342</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="6">
-        <v>53</v>
+        <v>21.2</v>
       </c>
       <c r="B109" s="6">
-        <v>-0.515061640518706</v>
+        <v>0.28244978</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.380415783</v>
+        <v>-0.153572251</v>
       </c>
       <c r="D109" s="1">
-        <v>0.103940478</v>
+        <v>0.811809383</v>
       </c>
       <c r="E109" s="1">
-        <v>-0.00434036</v>
+        <v>-0.285475625</v>
       </c>
       <c r="F109">
-        <v>-0.339277377</v>
+        <v>-0.182141918</v>
       </c>
       <c r="G109" s="6">
-        <v>-0.0548067257603062</v>
+        <v>-0.081540946</v>
       </c>
       <c r="H109" s="6">
-        <v>0.00185945101021104</v>
+        <v>0.022019387</v>
       </c>
       <c r="I109" s="6">
-        <v>-0.000547755440004137</v>
+        <v>-0.012813897</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="6">
-        <v>53.5</v>
+        <v>21.4</v>
       </c>
       <c r="B110" s="6">
-        <v>-0.504419672786096</v>
+        <v>0.245444568</v>
       </c>
       <c r="C110" s="1">
-        <v>0.420303875</v>
+        <v>-0.210791079</v>
       </c>
       <c r="D110" s="1">
-        <v>0.102205258</v>
+        <v>0.752366029</v>
       </c>
       <c r="E110" s="1">
-        <v>-0.002566474</v>
+        <v>-0.302021978</v>
       </c>
       <c r="F110">
-        <v>-0.348559673</v>
+        <v>-0.199983427</v>
       </c>
       <c r="G110" s="6">
-        <v>0.0199743375262183</v>
+        <v>-0.093907232</v>
       </c>
       <c r="H110" s="6">
-        <v>0.00171143306967124</v>
+        <v>0.019367145</v>
       </c>
       <c r="I110" s="6">
-        <v>-9.21676621675834e-6</v>
+        <v>-0.01330644</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="6">
-        <v>54</v>
+        <v>21.6</v>
       </c>
       <c r="B111" s="6">
-        <v>-0.144537417589405</v>
+        <v>0.200548959</v>
       </c>
       <c r="C111" s="1">
-        <v>0.929705707</v>
+        <v>-0.231971494</v>
       </c>
       <c r="D111" s="1">
-        <v>0.101467441</v>
+        <v>0.693713086</v>
       </c>
       <c r="E111" s="1">
-        <v>-0.000247161</v>
+        <v>-0.27808103</v>
       </c>
       <c r="F111">
-        <v>-0.321680796</v>
+        <v>-0.218582901</v>
       </c>
       <c r="G111" s="6">
-        <v>0.0808412101337141</v>
+        <v>-0.089591586</v>
       </c>
       <c r="H111" s="6">
-        <v>0.00181455102340198</v>
+        <v>0.016832388</v>
       </c>
       <c r="I111" s="6">
-        <v>0.000339474072630212</v>
+        <v>-0.011777218</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="6">
-        <v>54.5</v>
+        <v>21.8</v>
       </c>
       <c r="B112" s="6">
-        <v>0.315248478739322</v>
+        <v>0.155080184</v>
       </c>
       <c r="C112" s="1">
-        <v>0.795131456</v>
+        <v>-0.216984161</v>
       </c>
       <c r="D112" s="1">
-        <v>0.10210798</v>
+        <v>0.643453575</v>
       </c>
       <c r="E112" s="1">
-        <v>0.002948258</v>
+        <v>-0.219490276</v>
       </c>
       <c r="F112">
-        <v>-0.277298149</v>
+        <v>-0.235004652</v>
       </c>
       <c r="G112" s="6">
-        <v>0.0856483291433605</v>
+        <v>-0.073083617</v>
       </c>
       <c r="H112" s="6">
-        <v>0.00197986498368264</v>
+        <v>0.014740076</v>
       </c>
       <c r="I112" s="6">
-        <v>0.000292876906131531</v>
+        <v>-0.008979884</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="6">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B113" s="6">
-        <v>0.556542861591927</v>
+        <v>0.115798291</v>
       </c>
       <c r="C113" s="1">
-        <v>0.110125407</v>
+        <v>-0.171539438</v>
       </c>
       <c r="D113" s="1">
-        <v>0.104514556</v>
+        <v>0.607551335</v>
       </c>
       <c r="E113" s="1">
-        <v>0.00672436</v>
+        <v>-0.136450899</v>
       </c>
       <c r="F113">
-        <v>-0.246160822</v>
+        <v>-0.247387304</v>
       </c>
       <c r="G113" s="6">
-        <v>0.0311825704803042</v>
+        <v>-0.050083241</v>
       </c>
       <c r="H113" s="6">
-        <v>0.00212445183504149</v>
+        <v>0.013284105</v>
       </c>
       <c r="I113" s="6">
-        <v>0.00032191228779323</v>
+        <v>-0.005535684</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6">
-        <v>55.5</v>
+        <v>22.2</v>
       </c>
       <c r="B114" s="6">
-        <v>0.412419928428845</v>
+        <v>0.087764408</v>
       </c>
       <c r="C114" s="1">
-        <v>-0.650708628</v>
+        <v>-0.106703497</v>
       </c>
       <c r="D114" s="1">
-        <v>0.108820846</v>
+        <v>0.589684674</v>
       </c>
       <c r="E114" s="1">
-        <v>0.010436702</v>
+        <v>-0.041241562</v>
       </c>
       <c r="F114">
-        <v>-0.249767583</v>
+        <v>-0.254898289</v>
       </c>
       <c r="G114" s="6">
-        <v>-0.0446579997167607</v>
+        <v>-0.024923463</v>
       </c>
       <c r="H114" s="6">
-        <v>0.00230573397837419</v>
+        <v>0.012527973</v>
       </c>
       <c r="I114" s="6">
-        <v>0.000355653731142611</v>
+        <v>-0.002030629</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6">
-        <v>56</v>
+        <v>22.4</v>
       </c>
       <c r="B115" s="6">
-        <v>-0.0171199114526459</v>
+        <v>0.073463815</v>
       </c>
       <c r="C115" s="1">
-        <v>-0.960649908</v>
+        <v>-0.036647458</v>
       </c>
       <c r="D115" s="1">
-        <v>0.114852705</v>
+        <v>0.59103566</v>
       </c>
       <c r="E115" s="1">
-        <v>0.013574797</v>
+        <v>0.05372075</v>
       </c>
       <c r="F115">
-        <v>-0.285473432</v>
+        <v>-0.257384072</v>
       </c>
       <c r="G115" s="6">
-        <v>-0.0892202234996152</v>
+        <v>-0.000145033</v>
       </c>
       <c r="H115" s="6">
-        <v>0.00240398950579106</v>
+        <v>0.012468163</v>
       </c>
       <c r="I115" s="6">
-        <v>-2.41114551940247e-5</v>
+        <v>0.001401602</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6">
-        <v>56.5</v>
+        <v>22.6</v>
       </c>
       <c r="B116" s="6">
-        <v>-0.434591901264341</v>
+        <v>0.072532282</v>
       </c>
       <c r="C116" s="1">
-        <v>-0.605531675</v>
+        <v>0.024953116</v>
       </c>
       <c r="D116" s="1">
-        <v>0.12229116</v>
+        <v>0.610395258</v>
       </c>
       <c r="E116" s="1">
-        <v>0.016104994</v>
+        <v>0.137069338</v>
       </c>
       <c r="F116">
-        <v>-0.328367658</v>
+        <v>-0.255091939</v>
       </c>
       <c r="G116" s="6">
-        <v>-0.0716308524177663</v>
+        <v>0.022595012</v>
       </c>
       <c r="H116" s="6">
-        <v>0.00229361667801345</v>
+        <v>0.013064782</v>
       </c>
       <c r="I116" s="6">
-        <v>-0.000322120681923107</v>
+        <v>0.004492548</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6">
-        <v>57</v>
+        <v>22.8</v>
       </c>
       <c r="B117" s="6">
-        <v>-0.551108312724058</v>
+        <v>0.082223474</v>
       </c>
       <c r="C117" s="1">
-        <v>0.168305223</v>
+        <v>0.068433234</v>
       </c>
       <c r="D117" s="1">
-        <v>0.130936766</v>
+        <v>0.644434375</v>
       </c>
       <c r="E117" s="1">
-        <v>0.018517925</v>
+        <v>0.199062007</v>
       </c>
       <c r="F117">
-        <v>-0.348573458</v>
+        <v>-0.248590126</v>
       </c>
       <c r="G117" s="6">
-        <v>-0.00411426910027448</v>
+        <v>0.041674011</v>
       </c>
       <c r="H117" s="6">
-        <v>0.00221571956810396</v>
+        <v>0.014236666</v>
       </c>
       <c r="I117" s="6">
-        <v>0.000128439057964945</v>
+        <v>0.007142388</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6">
-        <v>57.5</v>
+        <v>23</v>
       </c>
       <c r="B118" s="6">
-        <v>-0.286307648552717</v>
+        <v>0.098430681</v>
       </c>
       <c r="C118" s="1">
-        <v>0.82499097</v>
+        <v>0.089986433</v>
       </c>
       <c r="D118" s="1">
-        <v>0.140909251</v>
+        <v>0.688099593</v>
       </c>
       <c r="E118" s="1">
-        <v>0.02152079</v>
+        <v>0.232362426</v>
       </c>
       <c r="F118">
-        <v>-0.331942714</v>
+        <v>-0.238776113</v>
       </c>
       <c r="G118" s="6">
-        <v>0.0665621979357751</v>
+        <v>0.05544948</v>
       </c>
       <c r="H118" s="6">
-        <v>0.00245862068164737</v>
+        <v>0.015874192</v>
       </c>
       <c r="I118" s="6">
-        <v>0.00078918260944581</v>
+        <v>0.00908189</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6">
-        <v>58</v>
+        <v>23.2</v>
       </c>
       <c r="B119" s="6">
-        <v>0.176246283816823</v>
+        <v>0.116871913</v>
       </c>
       <c r="C119" s="1">
-        <v>0.910270416</v>
+        <v>0.091476419</v>
       </c>
       <c r="D119" s="1">
-        <v>0.152627355</v>
+        <v>0.735196975</v>
       </c>
       <c r="E119" s="1">
-        <v>0.025520666</v>
+        <v>0.233075441</v>
       </c>
       <c r="F119">
-        <v>-0.28981567</v>
+        <v>-0.226866556</v>
       </c>
       <c r="G119" s="6">
-        <v>0.0915741882910846</v>
+        <v>0.062391617</v>
       </c>
       <c r="H119" s="6">
-        <v>0.00290720273215441</v>
+        <v>0.017803193</v>
       </c>
       <c r="I119" s="6">
-        <v>0.000917628073168415</v>
+        <v>0.010029181</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="6">
-        <v>58.5</v>
-      </c>
-      <c r="B120" s="6">
-        <v>0.516337091369038</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0.365661764</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0.166569741</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0.030347266</v>
-      </c>
-      <c r="F120">
-        <v>-0.25106815</v>
-      </c>
-      <c r="G120" s="6">
-        <v>0.0539750476639081</v>
-      </c>
-      <c r="H120" s="6">
-        <v>0.00335503255770516</v>
-      </c>
-      <c r="I120" s="6">
-        <v>0.000915589288185734</v>
-      </c>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="6">
-        <v>59</v>
-      </c>
-      <c r="B121" s="6">
-        <v>0.498750176015558</v>
-      </c>
-      <c r="C121" s="1">
-        <v>-0.431547796</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0.183026871</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0.035492555</v>
-      </c>
-      <c r="F121">
-        <v>-0.241993387</v>
-      </c>
-      <c r="G121" s="6">
-        <v>-0.0196351451329561</v>
-      </c>
-      <c r="H121" s="6">
-        <v>0.00386239080679824</v>
-      </c>
-      <c r="I121" s="6">
-        <v>0.00109510346012933</v>
-      </c>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="6">
-        <v>59.5</v>
-      </c>
-      <c r="B122" s="6">
-        <v>0.135890538280584</v>
-      </c>
-      <c r="C122" s="1">
-        <v>-0.929697073</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0.202048025</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0.040564708</v>
-      </c>
-      <c r="F122">
-        <v>-0.268060007</v>
-      </c>
-      <c r="G122" s="6">
-        <v>-0.0777879165539556</v>
-      </c>
-      <c r="H122" s="6">
-        <v>0.0043464058550134</v>
-      </c>
-      <c r="I122" s="6">
-        <v>0.000693957320954505</v>
-      </c>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="6">
-        <v>60</v>
-      </c>
-      <c r="B123" s="6">
-        <v>-0.321000943430247</v>
-      </c>
-      <c r="C123" s="1">
-        <v>-0.784384968</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0.223569469</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0.045515294</v>
-      </c>
-      <c r="F123">
-        <v>-0.310223637</v>
-      </c>
-      <c r="G123" s="6">
-        <v>-0.0800137512803334</v>
-      </c>
-      <c r="H123" s="6">
-        <v>0.00448204389573471</v>
-      </c>
-      <c r="I123" s="6">
-        <v>-8.80570377129046e-5</v>
-      </c>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="6">
-        <v>60.5</v>
-      </c>
-      <c r="B124" s="6">
-        <v>-0.555795225203175</v>
-      </c>
-      <c r="C124" s="1">
-        <v>-0.096542345</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0.247587489</v>
-      </c>
-      <c r="E124" s="1">
-        <v>0.050616697</v>
-      </c>
-      <c r="F124">
-        <v>-0.338257857</v>
-      </c>
-      <c r="G124" s="6">
-        <v>-0.0247920163194456</v>
-      </c>
-      <c r="H124" s="6">
-        <v>0.0044574048058129</v>
-      </c>
-      <c r="I124" s="6">
-        <v>0.000250957999480063</v>
-      </c>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="6">
-        <v>61</v>
-      </c>
-      <c r="B125" s="6">
-        <v>-0.40621596293613</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.657602765</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0.274281987</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0.056286081</v>
-      </c>
-      <c r="F125">
-        <v>-0.331739431</v>
-      </c>
-      <c r="G125" s="6">
-        <v>0.0496085367266194</v>
-      </c>
-      <c r="H125" s="6">
-        <v>0.00490672548984509</v>
-      </c>
-      <c r="I125" s="6">
-        <v>0.00155969132654121</v>
-      </c>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="6">
-        <v>61.5</v>
-      </c>
-      <c r="B126" s="6">
-        <v>0.0239596643167343</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.956137581</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.304007342</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0.06274134</v>
-      </c>
-      <c r="F126">
-        <v>-0.294145374</v>
-      </c>
-      <c r="G126" s="6">
-        <v>0.091877600017651</v>
-      </c>
-      <c r="H126" s="6">
-        <v>0.00587913890910043</v>
-      </c>
-      <c r="I126" s="6">
-        <v>0.00212414165263353</v>
-      </c>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="6">
-        <v>62</v>
-      </c>
-      <c r="B127" s="6">
-        <v>0.436765565246078</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.592420952</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0.337120199</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0.069770302</v>
-      </c>
-      <c r="F127">
-        <v>-0.250173323</v>
-      </c>
-      <c r="G127" s="6">
-        <v>0.0738440049234581</v>
-      </c>
-      <c r="H127" s="6">
-        <v>0.00691073936610625</v>
-      </c>
-      <c r="I127" s="6">
-        <v>0.00202547686155552</v>
-      </c>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="6">
-        <v>62.5</v>
-      </c>
-      <c r="B128" s="6">
-        <v>0.54622110058742</v>
-      </c>
-      <c r="C128" s="1">
-        <v>-0.181892687</v>
-      </c>
-      <c r="D128" s="1">
-        <v>0.37380298</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0.076959078</v>
-      </c>
-      <c r="F128">
-        <v>-0.228101692</v>
-      </c>
-      <c r="G128" s="6">
-        <v>0.0101645703888907</v>
-      </c>
-      <c r="H128" s="6">
-        <v>0.00801707497094321</v>
-      </c>
-      <c r="I128" s="6">
-        <v>0.00249087042033247</v>
-      </c>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="6">
-        <v>63</v>
-      </c>
-      <c r="B129" s="6">
-        <v>0.276326307380302</v>
-      </c>
-      <c r="C129" s="1">
-        <v>-0.830621624</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0.414062878</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0.08405363</v>
-      </c>
-      <c r="F129">
-        <v>-0.239874908</v>
-      </c>
-      <c r="G129" s="6">
-        <v>-0.0527731411095399</v>
-      </c>
-      <c r="H129" s="6">
-        <v>0.00933105922709601</v>
-      </c>
-      <c r="I129" s="6">
-        <v>0.00253148895607623</v>
-      </c>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="6">
-        <v>63.5</v>
-      </c>
-      <c r="B130" s="6">
-        <v>-0.186063815682825</v>
-      </c>
-      <c r="C130" s="1">
-        <v>-0.903824656</v>
-      </c>
-      <c r="D130" s="1">
-        <v>0.457816253</v>
-      </c>
-      <c r="E130" s="1">
-        <v>0.090900175</v>
-      </c>
-      <c r="F130">
-        <v>-0.273081107</v>
-      </c>
-      <c r="G130" s="6">
-        <v>-0.0701530525484133</v>
-      </c>
-      <c r="H130" s="6">
-        <v>0.0103148411384262</v>
-      </c>
-      <c r="I130" s="6">
-        <v>0.0013232150244049</v>
-      </c>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="6">
-        <v>64</v>
-      </c>
-      <c r="B131" s="6">
-        <v>-0.520317178532804</v>
-      </c>
-      <c r="C131" s="1">
-        <v>-0.34980145</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0.504877599</v>
-      </c>
-      <c r="E131" s="1">
-        <v>0.097234403</v>
-      </c>
-      <c r="F131">
-        <v>-0.30020364</v>
-      </c>
-      <c r="G131" s="6">
-        <v>-0.0300576337209722</v>
-      </c>
-      <c r="H131" s="6">
-        <v>0.0108374428315395</v>
-      </c>
-      <c r="I131" s="6">
-        <v>0.00115110130287598</v>
-      </c>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="6">
-        <v>64.5</v>
-      </c>
-      <c r="B132" s="6">
-        <v>-0.494244021210839</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.447744509</v>
-      </c>
-      <c r="D132" s="1">
-        <v>0.554922034</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0.102803628</v>
-      </c>
-      <c r="F132">
-        <v>-0.298196478</v>
-      </c>
-      <c r="G132" s="6">
-        <v>0.0389609906517503</v>
-      </c>
-      <c r="H132" s="6">
-        <v>0.0118029524149085</v>
-      </c>
-      <c r="I132" s="6">
-        <v>0.00282745466572027</v>
-      </c>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="6">
-        <v>65</v>
-      </c>
-      <c r="B133" s="6">
-        <v>-0.125608209782122</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.934867036</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0.607536099</v>
-      </c>
-      <c r="E133" s="1">
-        <v>0.107500864</v>
-      </c>
-      <c r="F133">
-        <v>-0.264572418</v>
-      </c>
-      <c r="G133" s="6">
-        <v>0.0885863395461528</v>
-      </c>
-      <c r="H133" s="6">
-        <v>0.0134829394903445</v>
-      </c>
-      <c r="I133" s="6">
-        <v>0.00352213637801802</v>
-      </c>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="6">
-        <v>65.5</v>
-      </c>
-      <c r="B134" s="6">
-        <v>0.329521706442318</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.771840194</v>
-      </c>
-      <c r="D134" s="1">
-        <v>0.662255883</v>
-      </c>
-      <c r="E134" s="1">
-        <v>0.111187747</v>
-      </c>
-      <c r="F134">
-        <v>-0.218475577</v>
-      </c>
-      <c r="G134" s="6">
-        <v>0.0864804977104193</v>
-      </c>
-      <c r="H134" s="6">
-        <v>0.0150680243277182</v>
-      </c>
-      <c r="I134" s="6">
-        <v>0.00284453867080951</v>
-      </c>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="6">
-        <v>66</v>
-      </c>
-      <c r="B135" s="6">
-        <v>0.554292189648993</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.070890108</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0.718496549</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0.113501135</v>
-      </c>
-      <c r="F135">
-        <v>-0.185741172</v>
-      </c>
-      <c r="G135" s="6">
-        <v>0.0396017030164596</v>
-      </c>
-      <c r="H135" s="6">
-        <v>0.0166420390507196</v>
-      </c>
-      <c r="I135" s="6">
-        <v>0.00388028642533522</v>
-      </c>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="6">
-        <v>66.5</v>
-      </c>
-      <c r="B136" s="6">
-        <v>0.391927681479443</v>
-      </c>
-      <c r="C136" s="1">
-        <v>-0.679621684</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0.775418093</v>
-      </c>
-      <c r="E136" s="1">
-        <v>0.113765742</v>
-      </c>
-      <c r="F136">
-        <v>-0.18002401</v>
-      </c>
-      <c r="G136" s="6">
-        <v>-0.0141589236140405</v>
-      </c>
-      <c r="H136" s="6">
-        <v>0.0191597478473562</v>
-      </c>
-      <c r="I136" s="6">
-        <v>0.00605809367499063</v>
-      </c>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="6">
-        <v>67</v>
-      </c>
-      <c r="B137" s="6">
-        <v>-0.0440936652443702</v>
-      </c>
-      <c r="C137" s="1">
-        <v>-0.954771815</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0.831743853</v>
-      </c>
-      <c r="E137" s="1">
-        <v>0.110918102</v>
-      </c>
-      <c r="F137">
-        <v>-0.194427836</v>
-      </c>
-      <c r="G137" s="6">
-        <v>-0.0360960214613558</v>
-      </c>
-      <c r="H137" s="6">
-        <v>0.0223139460014417</v>
-      </c>
-      <c r="I137" s="6">
-        <v>0.00611199694102109</v>
-      </c>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="6">
-        <v>67.5</v>
-      </c>
-      <c r="B138" s="6">
-        <v>-0.448474037852348</v>
-      </c>
-      <c r="C138" s="1">
-        <v>-0.560840395</v>
-      </c>
-      <c r="D138" s="1">
-        <v>0.885645724</v>
-      </c>
-      <c r="E138" s="1">
-        <v>0.10397097</v>
-      </c>
-      <c r="F138">
-        <v>-0.208684983</v>
-      </c>
-      <c r="G138" s="6">
-        <v>-0.0145997851942275</v>
-      </c>
-      <c r="H138" s="6">
-        <v>0.0250054232438555</v>
-      </c>
-      <c r="I138" s="6">
-        <v>0.00459586878496545</v>
-      </c>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="6">
-        <v>68</v>
-      </c>
-      <c r="B139" s="6">
-        <v>-0.537746125267734</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.226088817</v>
-      </c>
-      <c r="D139" s="1">
-        <v>0.935056201</v>
-      </c>
-      <c r="E139" s="1">
-        <v>0.093131913</v>
-      </c>
-      <c r="F139">
-        <v>-0.205131827</v>
-      </c>
-      <c r="G139" s="6">
-        <v>0.0297920081174245</v>
-      </c>
-      <c r="H139" s="6">
-        <v>0.0269080506393782</v>
-      </c>
-      <c r="I139" s="6">
-        <v>0.00293374074341173</v>
-      </c>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="6">
-        <v>68.5</v>
-      </c>
-      <c r="B140" s="6">
-        <v>-0.249793688354366</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.852716849</v>
-      </c>
-      <c r="D140" s="1">
-        <v>0.978419039</v>
-      </c>
-      <c r="E140" s="1">
-        <v>0.080151144</v>
-      </c>
-      <c r="F140">
-        <v>-0.180818447</v>
-      </c>
-      <c r="G140" s="6">
-        <v>0.063108847985629</v>
-      </c>
-      <c r="H140" s="6">
-        <v>0.0277381369601909</v>
-      </c>
-      <c r="I140" s="6">
-        <v>0.000187514494225408</v>
-      </c>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/result/result3.xlsx
+++ b/result/result3.xlsx
@@ -170,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -211,7 +211,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +255,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,24 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,22 +303,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,32 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,16 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,7 +385,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,55 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,109 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +617,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -637,231 +711,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,10 +889,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I119"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1287,16 +1296,16 @@
       <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>-0.0304125</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>5.42101e-20</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>-2.69433e-19</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>-1.05879e-21</v>
       </c>
     </row>
@@ -1316,7 +1325,7 @@
       <c r="E4" s="8">
         <v>0.028346956</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>-0.188152333</v>
       </c>
       <c r="G4" s="6">
@@ -1345,7 +1354,7 @@
       <c r="E5" s="8">
         <v>0.059034139</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>-0.345268396</v>
       </c>
       <c r="G5" s="6">
@@ -1374,7 +1383,7 @@
       <c r="E6" s="8">
         <v>0.084919321</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>-0.346714822</v>
       </c>
       <c r="G6" s="6">
@@ -1403,7 +1412,7 @@
       <c r="E7" s="8">
         <v>0.106792564</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>-0.294179921</v>
       </c>
       <c r="G7" s="6">
@@ -1432,7 +1441,7 @@
       <c r="E8" s="8">
         <v>0.133973136</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>-0.271745195</v>
       </c>
       <c r="G8" s="6">
@@ -1461,7 +1470,7 @@
       <c r="E9" s="8">
         <v>0.163490836</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>-0.277622011</v>
       </c>
       <c r="G9" s="6">
@@ -1490,7 +1499,7 @@
       <c r="E10" s="8">
         <v>0.20006105</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>-0.28572527</v>
       </c>
       <c r="G10" s="6">
@@ -1519,7 +1528,7 @@
       <c r="E11" s="8">
         <v>0.24369835</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>-0.288069518</v>
       </c>
       <c r="G11" s="6">
@@ -1548,7 +1557,7 @@
       <c r="E12" s="8">
         <v>0.305330212</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>-0.289691425</v>
       </c>
       <c r="G12" s="6">
@@ -1568,16 +1577,16 @@
       <c r="B13" s="6">
         <v>-0.175542165</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>-0.315675044</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>0.302590261</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>0.384608591</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <v>-0.294178533</v>
       </c>
       <c r="G13" s="6">
@@ -1597,16 +1606,16 @@
       <c r="B14" s="6">
         <v>-0.230279715</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>-0.221587362</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>0.389007542</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>0.481803421</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="12">
         <v>-0.299784775</v>
       </c>
       <c r="G14" s="6">
@@ -1626,16 +1635,16 @@
       <c r="B15" s="6">
         <v>-0.259841821</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>-0.062635189</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>0.495438472</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>0.580873302</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="12">
         <v>-0.302884094</v>
       </c>
       <c r="G15" s="6">
@@ -1655,16 +1664,16 @@
       <c r="B16" s="6">
         <v>-0.250631192</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <v>0.166949763</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>0.619824455</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>0.65636512</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="12">
         <v>-0.300106986</v>
       </c>
       <c r="G16" s="6">
@@ -1684,16 +1693,16 @@
       <c r="B17" s="6">
         <v>-0.188083168</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
         <v>0.470378806</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="9">
         <v>0.754062038</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <v>0.673523422</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>-0.288043662</v>
       </c>
       <c r="G17" s="6">
@@ -1713,16 +1722,16 @@
       <c r="B18" s="6">
         <v>-0.05889879</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="9">
         <v>0.82549576</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="9">
         <v>0.883705294</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="9">
         <v>0.608680988</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>-0.263147696</v>
       </c>
       <c r="G18" s="6">
@@ -1742,16 +1751,16 @@
       <c r="B19" s="6">
         <v>0.140253233</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="9">
         <v>1.149810666</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="9">
         <v>0.992274428</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="9">
         <v>0.466047241</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <v>-0.22336982</v>
       </c>
       <c r="G19" s="6">
@@ -1771,16 +1780,16 @@
       <c r="B20" s="6">
         <v>0.388583646</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="9">
         <v>1.287160255</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="9">
         <v>1.067149037</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="9">
         <v>0.279115549</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="12">
         <v>-0.17244585</v>
       </c>
       <c r="G20" s="6">
@@ -1800,16 +1809,16 @@
       <c r="B21" s="6">
         <v>0.63211254</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="9">
         <v>1.085065177</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="9">
         <v>1.103811958</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="9">
         <v>0.089689327</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="12">
         <v>-0.121185537</v>
       </c>
       <c r="G21" s="6">
@@ -1829,16 +1838,16 @@
       <c r="B22" s="6">
         <v>0.799393927</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="9">
         <v>0.541519753</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="9">
         <v>1.104298351</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9">
         <v>-0.08140286</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="12">
         <v>-0.08350758</v>
       </c>
       <c r="G22" s="6">
@@ -1858,16 +1867,16 @@
       <c r="B23" s="6">
         <v>0.837711553</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="9">
         <v>-0.165462867</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="9">
         <v>1.072490809</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="9">
         <v>-0.233878814</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="12">
         <v>-0.069420147</v>
       </c>
       <c r="G23" s="6">
@@ -1887,16 +1896,16 @@
       <c r="B24" s="6">
         <v>0.737897508</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="9">
         <v>-0.80517814</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="9">
         <v>1.011892169</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="9">
         <v>-0.368837157</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <v>-0.081524104</v>
       </c>
       <c r="G24" s="6">
@@ -1916,16 +1925,16 @@
       <c r="B25" s="6">
         <v>0.530564426</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="9">
         <v>-1.225226608</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="9">
         <v>0.926606832</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="9">
         <v>-0.478795153</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>-0.116052599</v>
       </c>
       <c r="G25" s="6">
@@ -1945,16 +1954,16 @@
       <c r="B26" s="6">
         <v>0.264993277</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="9">
         <v>-1.390284797</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="9">
         <v>0.823001566</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="9">
         <v>-0.549281481</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="12">
         <v>-0.165365549</v>
       </c>
       <c r="G26" s="6">
@@ -1974,16 +1983,16 @@
       <c r="B27" s="6">
         <v>-0.011462369</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="9">
         <v>-1.344199729</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="9">
         <v>0.710538349</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="9">
         <v>-0.565606099</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <v>-0.219387017</v>
       </c>
       <c r="G27" s="6">
@@ -2003,16 +2012,16 @@
       <c r="B28" s="6">
         <v>-0.262399314</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="9">
         <v>-1.14321211</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="9">
         <v>0.600516847</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="9">
         <v>-0.526068661</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="12">
         <v>-0.267967434</v>
       </c>
       <c r="G28" s="6">
@@ -2032,16 +2041,16 @@
       <c r="B29" s="6">
         <v>-0.461264332</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="9">
         <v>-0.829740615</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="9">
         <v>0.503079531</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="9">
         <v>-0.442109147</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <v>-0.304998345</v>
       </c>
       <c r="G29" s="6">
@@ -2061,16 +2070,16 @@
       <c r="B30" s="6">
         <v>-0.589126824</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="9">
         <v>-0.438912978</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="9">
         <v>0.425487255</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="9">
         <v>-0.331092146</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="12">
         <v>-0.32921939</v>
       </c>
       <c r="G30" s="6">
@@ -2090,16 +2099,16 @@
       <c r="B31" s="6">
         <v>-0.634313308</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="9">
         <v>-0.010740442</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="9">
         <v>0.371228571</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="9">
         <v>-0.210754697</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <v>-0.342209999</v>
       </c>
       <c r="G31" s="6">
@@ -2119,16 +2128,16 @@
       <c r="B32" s="6">
         <v>-0.594190734</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="9">
         <v>0.406031839</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="9">
         <v>0.341262135</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="9">
         <v>-0.089294958</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="12">
         <v>-0.345242955</v>
       </c>
       <c r="G32" s="6">
@@ -2148,16 +2157,16 @@
       <c r="B33" s="6">
         <v>-0.475846685</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="9">
         <v>0.763758658</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="9">
         <v>0.33531774</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="9">
         <v>0.029639011</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="12">
         <v>-0.338983382</v>
       </c>
       <c r="G33" s="6">
@@ -2177,16 +2186,16 @@
       <c r="B34" s="6">
         <v>-0.295430842</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="9">
         <v>1.020805451</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="9">
         <v>0.35308052</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="9">
         <v>0.147713284</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="12">
         <v>-0.324306966</v>
       </c>
       <c r="G34" s="6">
@@ -2206,16 +2215,16 @@
       <c r="B35" s="6">
         <v>-0.076225872</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="9">
         <v>1.147720776</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="9">
         <v>0.394211562</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="9">
         <v>0.262993487</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="12">
         <v>-0.302958306</v>
       </c>
       <c r="G35" s="6">
@@ -2235,16 +2244,16 @@
       <c r="B36" s="6">
         <v>0.153872518</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="9">
         <v>1.128508974</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="9">
         <v>0.457848357</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="9">
         <v>0.371452818</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="12">
         <v>-0.27714132</v>
       </c>
       <c r="G36" s="6">
@@ -2264,16 +2273,16 @@
       <c r="B37" s="6">
         <v>0.365496103</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="9">
         <v>0.964565597</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="9">
         <v>0.541603342</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="9">
         <v>0.462130039</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="12">
         <v>-0.249112527</v>
       </c>
       <c r="G37" s="6">
@@ -2293,16 +2302,16 @@
       <c r="B38" s="6">
         <v>0.531195418</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="9">
         <v>0.673741249</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="9">
         <v>0.640707456</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="9">
         <v>0.52283601</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="12">
         <v>-0.220784193</v>
       </c>
       <c r="G38" s="6">
@@ -2322,16 +2331,16 @@
       <c r="B39" s="6">
         <v>0.628934862</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="9">
         <v>0.292641027</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="9">
         <v>0.74790791</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="9">
         <v>0.541325331</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <v>-0.193810139</v>
       </c>
       <c r="G39" s="6">
@@ -2351,16 +2360,16 @@
       <c r="B40" s="6">
         <v>0.645887668</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="9">
         <v>-0.123142618</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="9">
         <v>0.853934631</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="9">
         <v>0.510412996</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="12">
         <v>-0.169888098</v>
       </c>
       <c r="G40" s="6">
@@ -2380,16 +2389,16 @@
       <c r="B41" s="6">
         <v>0.582519222</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="9">
         <v>-0.495597573</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="9">
         <v>0.94859767</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="9">
         <v>0.427442378</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="12">
         <v>-0.150972079</v>
       </c>
       <c r="G41" s="6">
@@ -2409,16 +2418,16 @@
       <c r="B42" s="6">
         <v>0.456930261</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="9">
         <v>-0.729232214</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="9">
         <v>1.021434389</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="9">
         <v>0.292470848</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="12">
         <v>-0.139288657</v>
       </c>
       <c r="G42" s="6">
@@ -2438,16 +2447,16 @@
       <c r="B43" s="6">
         <v>0.305519203</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="9">
         <v>-0.745191394</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="9">
         <v>1.062445078</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="9">
         <v>0.110764085</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="12">
         <v>-0.136451993</v>
       </c>
       <c r="G43" s="6">
@@ -2467,16 +2476,16 @@
       <c r="B44" s="6">
         <v>0.173627906</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="9">
         <v>-0.543772755</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="9">
         <v>1.063700512</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="9">
         <v>-0.100939497</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="12">
         <v>-0.142820521</v>
       </c>
       <c r="G44" s="6">
@@ -2496,16 +2505,16 @@
       <c r="B45" s="6">
         <v>0.095209335</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="9">
         <v>-0.235858994</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="9">
         <v>1.022197854</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="9">
         <v>-0.31054829</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="12">
         <v>-0.157504045</v>
       </c>
       <c r="G45" s="6">
@@ -2525,16 +2534,16 @@
       <c r="B46" s="6">
         <v>0.076098034</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="9">
         <v>0.026526934</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="9">
         <v>0.94207543</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="9">
         <v>-0.48170317</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="12">
         <v>-0.178168155</v>
       </c>
       <c r="G46" s="6">
@@ -2554,16 +2563,16 @@
       <c r="B47" s="6">
         <v>0.096231234</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="9">
         <v>0.148221947</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="9">
         <v>0.833739796</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="9">
         <v>-0.590169861</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="12">
         <v>-0.200502346</v>
       </c>
       <c r="G47" s="6">
@@ -2583,16 +2592,16 @@
       <c r="B48" s="6">
         <v>0.125341174</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="9">
         <v>0.121238985</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="9">
         <v>0.710594169</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="9">
         <v>-0.630350609</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="12">
         <v>-0.219682468</v>
       </c>
       <c r="G48" s="6">
@@ -2612,16 +2621,16 @@
       <c r="B49" s="6">
         <v>0.138153057</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="9">
         <v>-0.003934228</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="9">
         <v>0.585567774</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="9">
         <v>-0.611177537</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="12">
         <v>-0.234039298</v>
       </c>
       <c r="G49" s="6">
@@ -2641,16 +2650,16 @@
       <c r="B50" s="6">
         <v>0.121662671</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="9">
         <v>-0.161056505</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="9">
         <v>0.469048011</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="9">
         <v>-0.548312147</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="12">
         <v>-0.245925221</v>
       </c>
       <c r="G50" s="6">
@@ -2670,16 +2679,16 @@
       <c r="B51" s="6">
         <v>0.075387115</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="9">
         <v>-0.294102368</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="9">
         <v>0.367856931</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="9">
         <v>-0.461044984</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="12">
         <v>-0.258770966</v>
       </c>
       <c r="G51" s="6">
@@ -2699,16 +2708,16 @@
       <c r="B52" s="6">
         <v>0.008026341</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="9">
         <v>-0.36762018</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="9">
         <v>0.28523361</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="9">
         <v>-0.364519599</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="12">
         <v>-0.273941725</v>
       </c>
       <c r="G52" s="6">
@@ -2728,16 +2737,16 @@
       <c r="B53" s="6">
         <v>-0.06645342</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="9">
         <v>-0.363564271</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="9">
         <v>0.222058556</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="9">
         <v>-0.267640082</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="12">
         <v>-0.29026823</v>
       </c>
       <c r="G53" s="6">
@@ -2757,16 +2766,16 @@
       <c r="B54" s="6">
         <v>-0.132054112</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="9">
         <v>-0.279852525</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="9">
         <v>0.178008723</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="9">
         <v>-0.173133647</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="12">
         <v>-0.305652739</v>
       </c>
       <c r="G54" s="6">
@@ -2786,16 +2795,16 @@
       <c r="B55" s="6">
         <v>-0.17395279</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="9">
         <v>-0.129968527</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="9">
         <v>0.152749993</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="9">
         <v>-0.079437751</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="12">
         <v>-0.318061469</v>
       </c>
       <c r="G55" s="6">
@@ -2815,16 +2824,16 @@
       <c r="B56" s="6">
         <v>-0.181390525</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="9">
         <v>0.059386983</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="9">
         <v>0.146382176</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="9">
         <v>0.016572569</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="12">
         <v>-0.325845643</v>
       </c>
       <c r="G56" s="6">
@@ -2844,16 +2853,16 @@
       <c r="B57" s="6">
         <v>-0.149911349</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="9">
         <v>0.252980755</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="9">
         <v>0.159831511</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="9">
         <v>0.11926548</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="12">
         <v>-0.327796199</v>
       </c>
       <c r="G57" s="6">
@@ -2873,16 +2882,16 @@
       <c r="B58" s="6">
         <v>-0.082407686</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="9">
         <v>0.413570963</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="9">
         <v>0.194712033</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="9">
         <v>0.231289127</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="12">
         <v>-0.323387445</v>
       </c>
       <c r="G58" s="6">
@@ -2902,16 +2911,16 @@
       <c r="B59" s="6">
         <v>0.011100329</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="9">
         <v>0.508290317</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="9">
         <v>0.253007103</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="9">
         <v>0.352945067</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="12">
         <v>-0.312886203</v>
       </c>
       <c r="G59" s="6">
@@ -2931,16 +2940,16 @@
       <c r="B60" s="6">
         <v>0.115024051</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="9">
         <v>0.515287632</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="9">
         <v>0.336129975</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="9">
         <v>0.477975118</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="12">
         <v>-0.297273884</v>
       </c>
       <c r="G60" s="6">
@@ -2960,16 +2969,16 @@
       <c r="B61" s="6">
         <v>0.210965341</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="9">
         <v>0.429275179</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="9">
         <v>0.443514333</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="9">
         <v>0.592422987</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="12">
         <v>-0.27788477</v>
       </c>
       <c r="G61" s="6">
@@ -2989,16 +2998,16 @@
       <c r="B62" s="6">
         <v>0.281557079</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="9">
         <v>0.266346606</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="9">
         <v>0.570911668</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="9">
         <v>0.67403297</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="12">
         <v>-0.256028991</v>
       </c>
       <c r="G62" s="6">
@@ -3018,16 +3027,16 @@
       <c r="B63" s="6">
         <v>0.314871537</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="9">
         <v>0.064576276</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="9">
         <v>0.709354347</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="9">
         <v>0.699252385</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="12">
         <v>-0.232615365</v>
       </c>
       <c r="G63" s="6">
@@ -3047,16 +3056,16 @@
       <c r="B64" s="6">
         <v>0.308533992</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="9">
         <v>-0.119736941</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="9">
         <v>0.845680045</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="9">
         <v>0.650932699</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="12">
         <v>-0.208176421</v>
       </c>
       <c r="G64" s="6">
@@ -3076,16 +3085,16 @@
       <c r="B65" s="6">
         <v>0.27238118</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="9">
         <v>-0.223413422</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="9">
         <v>0.964482608</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="9">
         <v>0.524390761</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="12">
         <v>-0.183467768</v>
       </c>
       <c r="G65" s="6">
@@ -3105,16 +3114,16 @@
       <c r="B66" s="6">
         <v>0.227835313</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="9">
         <v>-0.198940614</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="9">
         <v>1.050790653</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="9">
         <v>0.328647522</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="12">
         <v>-0.16040262</v>
       </c>
       <c r="G66" s="6">
@@ -3134,16 +3143,16 @@
       <c r="B67" s="6">
         <v>0.201042901</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="9">
         <v>-0.053926841</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="9">
         <v>1.092862217</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="9">
         <v>0.087203264</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="12">
         <v>-0.142494406</v>
       </c>
       <c r="G67" s="6">
@@ -3163,16 +3172,16 @@
       <c r="B68" s="6">
         <v>0.208629001</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="9">
         <v>0.125608791</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="9">
         <v>1.085060093</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="9">
         <v>-0.163335575</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="12">
         <v>-0.133990889</v>
       </c>
       <c r="G68" s="6">
@@ -3192,16 +3201,16 @@
       <c r="B69" s="6">
         <v>0.246132946</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="9">
         <v>0.230193294</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="9">
         <v>1.029537299</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="9">
         <v>-0.384118264</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="12">
         <v>-0.137928752</v>
       </c>
       <c r="G69" s="6">
@@ -3221,16 +3230,16 @@
       <c r="B70" s="6">
         <v>0.292104189</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="9">
         <v>0.208211943</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="9">
         <v>0.935358506</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="9">
         <v>-0.546160627</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="12">
         <v>-0.153940047</v>
       </c>
       <c r="G70" s="6">
@@ -3250,16 +3259,16 @@
       <c r="B71" s="6">
         <v>0.322096225</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="9">
         <v>0.07764076</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="9">
         <v>0.816057139</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="9">
         <v>-0.633928011</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="12">
         <v>-0.177790062</v>
       </c>
       <c r="G71" s="6">
@@ -3279,16 +3288,16 @@
       <c r="B72" s="6">
         <v>0.319583002</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="9">
         <v>-0.106569039</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="9">
         <v>0.686879581</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="9">
         <v>-0.645633806</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="12">
         <v>-0.204015366</v>
       </c>
       <c r="G72" s="6">
@@ -3308,16 +3317,16 @@
       <c r="B73" s="6">
         <v>0.279842666</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="9">
         <v>-0.28555226</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="9">
         <v>0.562334623</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="9">
         <v>-0.589669009</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="12">
         <v>-0.228928804</v>
       </c>
       <c r="G73" s="6">
@@ -3337,16 +3346,16 @@
       <c r="B74" s="6">
         <v>0.208917934</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="9">
         <v>-0.411926804</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="9">
         <v>0.45438041</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="9">
         <v>-0.483414813</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="12">
         <v>-0.251220693</v>
       </c>
       <c r="G74" s="6">
@@ -3366,16 +3375,16 @@
       <c r="B75" s="6">
         <v>0.12037787</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="9">
         <v>-0.459595608</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="9">
         <v>0.370827082</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="9">
         <v>-0.348981066</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="12">
         <v>-0.270990445</v>
       </c>
       <c r="G75" s="6">
@@ -3395,16 +3404,16 @@
       <c r="B76" s="6">
         <v>0.030485323</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="9">
         <v>-0.426678457</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="9">
         <v>0.315551836</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="9">
         <v>-0.202994857</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="12">
         <v>-0.287859184</v>
       </c>
       <c r="G76" s="6">
@@ -3424,16 +3433,16 @@
       <c r="B77" s="6">
         <v>-0.04586744</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="9">
         <v>-0.327790578</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="9">
         <v>0.289650806</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="9">
         <v>-0.056270022</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="12">
         <v>-0.300724684</v>
       </c>
       <c r="G77" s="6">
@@ -3453,16 +3462,16 @@
       <c r="B78" s="6">
         <v>-0.097950107</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="9">
         <v>-0.188754901</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="9">
         <v>0.292927756</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="9">
         <v>0.088605963</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="12">
         <v>-0.308404033</v>
       </c>
       <c r="G78" s="6">
@@ -3482,16 +3491,16 @@
       <c r="B79" s="6">
         <v>-0.120632122</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="9">
         <v>-0.038629368</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="9">
         <v>0.324822024</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="9">
         <v>0.229486703</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="12">
         <v>-0.310198623</v>
       </c>
       <c r="G79" s="6">
@@ -3511,16 +3520,16 @@
       <c r="B80" s="6">
         <v>-0.11448067</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="9">
         <v>0.095682242</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="9">
         <v>0.384269171</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="9">
         <v>0.363233112</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="12">
         <v>-0.305988171</v>
       </c>
       <c r="G80" s="6">
@@ -3540,16 +3549,16 @@
       <c r="B81" s="6">
         <v>-0.084580504</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="9">
         <v>0.197126302</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="9">
         <v>0.468967987</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="9">
         <v>0.479606712</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="12">
         <v>-0.296045846</v>
       </c>
       <c r="G81" s="6">
@@ -3569,16 +3578,16 @@
       <c r="B82" s="6">
         <v>-0.03807409</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="9">
         <v>0.262443052</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="9">
         <v>0.573868283</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="9">
         <v>0.562164146</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="12">
         <v>-0.280833103</v>
       </c>
       <c r="G82" s="6">
@@ -3598,16 +3607,16 @@
       <c r="B83" s="6">
         <v>0.018712961</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="9">
         <v>0.302724524</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="9">
         <v>0.690267555</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="9">
         <v>0.591443778</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="12">
         <v>-0.260716128</v>
       </c>
       <c r="G83" s="6">
@@ -3627,16 +3636,16 @@
       <c r="B84" s="6">
         <v>0.082505533</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="9">
         <v>0.335065667</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="9">
         <v>0.805941967</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="9">
         <v>0.553625367</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="12">
         <v>-0.236033754</v>
       </c>
       <c r="G84" s="6">
@@ -3656,16 +3665,16 @@
       <c r="B85" s="6">
         <v>0.152830246</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="9">
         <v>0.368011759</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="9">
         <v>0.907170095</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="9">
         <v>0.448108693</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="12">
         <v>-0.207618778</v>
       </c>
       <c r="G85" s="6">
@@ -3685,16 +3694,16 @@
       <c r="B86" s="6">
         <v>0.228954491</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="9">
         <v>0.388836955</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="9">
         <v>0.981592524</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="9">
         <v>0.289088795</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="12">
         <v>-0.178030766</v>
       </c>
       <c r="G86" s="6">
@@ -3714,16 +3723,16 @@
       <c r="B87" s="6">
         <v>0.305386009</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="9">
         <v>0.365182261</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="9">
         <v>1.0209059</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="9">
         <v>0.101615818</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="12">
         <v>-0.151987019</v>
       </c>
       <c r="G87" s="6">
@@ -3743,16 +3752,16 @@
       <c r="B88" s="6">
         <v>0.37023513</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="9">
         <v>0.270837542</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="9">
         <v>1.022147294</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="9">
         <v>-0.087388014</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="12">
         <v>-0.135194617</v>
       </c>
       <c r="G88" s="6">
@@ -3772,16 +3781,16 @@
       <c r="B89" s="6">
         <v>0.409303982</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="9">
         <v>0.111332602</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="9">
         <v>0.987382921</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="9">
         <v>-0.255091222</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="12">
         <v>-0.131827221</v>
       </c>
       <c r="G89" s="6">
@@ -3801,16 +3810,16 @@
       <c r="B90" s="6">
         <v>0.412768052</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="9">
         <v>-0.077997582</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="9">
         <v>0.922711443</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="9">
         <v>-0.38393508</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="12">
         <v>-0.142559116</v>
       </c>
       <c r="G90" s="6">
@@ -3830,16 +3839,16 @@
       <c r="B91" s="6">
         <v>0.378932098</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="9">
         <v>-0.255378058</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="9">
         <v>0.837264957</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="9">
         <v>-0.461121227</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="12">
         <v>-0.164553459</v>
       </c>
       <c r="G91" s="6">
@@ -3859,16 +3868,16 @@
       <c r="B92" s="6">
         <v>0.313475472</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="9">
         <v>-0.390322704</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="9">
         <v>0.742196058</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="9">
         <v>-0.479589523</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="12">
         <v>-0.192754638</v>
       </c>
       <c r="G92" s="6">
@@ -3888,16 +3897,16 @@
       <c r="B93" s="6">
         <v>0.226829125</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="9">
         <v>-0.465159017</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="9">
         <v>0.649293323</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="9">
         <v>-0.440404481</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="12">
         <v>-0.221639791</v>
       </c>
       <c r="G93" s="6">
@@ -3917,16 +3926,16 @@
       <c r="B94" s="6">
         <v>0.131996626</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="9">
         <v>-0.471558726</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="9">
         <v>0.569239007</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="9">
         <v>-0.353341992</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="12">
         <v>-0.246976565</v>
       </c>
       <c r="G94" s="6">
@@ -3946,16 +3955,16 @@
       <c r="B95" s="6">
         <v>0.042676851</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="9">
         <v>-0.41130052</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="9">
         <v>0.510120309</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="9">
         <v>-0.23385763</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="12">
         <v>-0.266629946</v>
       </c>
       <c r="G95" s="6">
@@ -3975,16 +3984,16 @@
       <c r="B96" s="6">
         <v>-0.028959702</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="9">
         <v>-0.297916102</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="9">
         <v>0.47674759</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="9">
         <v>-0.09849524</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="12">
         <v>-0.28000446</v>
       </c>
       <c r="G96" s="6">
@@ -4004,16 +4013,16 @@
       <c r="B97" s="6">
         <v>-0.0744657</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="9">
         <v>-0.154259832</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="9">
         <v>0.470839605</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="9">
         <v>0.038721476</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="12">
         <v>-0.287014415</v>
       </c>
       <c r="G97" s="6">
@@ -4033,16 +4042,16 @@
       <c r="B98" s="6">
         <v>-0.090360348</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="9">
         <v>-0.005917515</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="9">
         <v>0.491597784</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="9">
         <v>0.166390791</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="12">
         <v>-0.287634176</v>
       </c>
       <c r="G98" s="6">
@@ -4062,16 +4071,16 @@
       <c r="B99" s="6">
         <v>-0.077990255</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="9">
         <v>0.125345178</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="9">
         <v>0.536060337</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="9">
         <v>0.274006344</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="12">
         <v>-0.282049423</v>
       </c>
       <c r="G99" s="6">
@@ -4091,16 +4100,16 @@
       <c r="B100" s="6">
         <v>-0.042293774</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="9">
         <v>0.225850599</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="9">
         <v>0.599143291</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="9">
         <v>0.350783294</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="12">
         <v>-0.270817336</v>
       </c>
       <c r="G100" s="6">
@@ -4120,16 +4129,16 @@
       <c r="B101" s="6">
         <v>0.00997201</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="9">
         <v>0.290903831</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="9">
         <v>0.673642744</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="9">
         <v>0.386727563</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="12">
         <v>-0.254847099</v>
       </c>
       <c r="G101" s="6">
@@ -4149,16 +4158,16 @@
       <c r="B102" s="6">
         <v>0.071805081</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="9">
         <v>0.322061732</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="9">
         <v>0.750689138</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="9">
         <v>0.375728137</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="12">
         <v>-0.23534788</v>
       </c>
       <c r="G102" s="6">
@@ -4178,16 +4187,16 @@
       <c r="B103" s="6">
         <v>0.136743072</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="9">
         <v>0.322316726</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="9">
         <v>0.820831317</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="9">
         <v>0.318459205</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="12">
         <v>-0.213975146</v>
       </c>
       <c r="G103" s="6">
@@ -4207,16 +4216,16 @@
       <c r="B104" s="6">
         <v>0.198723192</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="9">
         <v>0.292381202</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="9">
         <v>0.875534423</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="9">
         <v>0.22331465</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="12">
         <v>-0.193061565</v>
       </c>
       <c r="G104" s="6">
@@ -4236,16 +4245,16 @@
       <c r="B105" s="6">
         <v>0.251635487</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="9">
         <v>0.231671414</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="9">
         <v>0.908576806</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="9">
         <v>0.104551064</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="12">
         <v>-0.175587814</v>
       </c>
       <c r="G105" s="6">
@@ -4265,16 +4274,16 @@
       <c r="B106" s="6">
         <v>0.289529829</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="9">
         <v>0.143321273</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="9">
         <v>0.916907077</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="9">
         <v>-0.020947549</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="12">
         <v>-0.164582992</v>
       </c>
       <c r="G106" s="6">
@@ -4294,16 +4303,16 @@
       <c r="B107" s="6">
         <v>0.307835824</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="9">
         <v>0.038272715</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="9">
         <v>0.900854114</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="9">
         <v>-0.136679812</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="12">
         <v>-0.162122493</v>
       </c>
       <c r="G107" s="6">
@@ -4323,16 +4332,16 @@
       <c r="B108" s="6">
         <v>0.304863129</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="9">
         <v>-0.066416378</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="9">
         <v>0.863842388</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="9">
         <v>-0.228419804</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="12">
         <v>-0.168516018</v>
       </c>
       <c r="G108" s="6">
@@ -4352,16 +4361,16 @@
       <c r="B109" s="6">
         <v>0.28244978</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="9">
         <v>-0.153572251</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="9">
         <v>0.811809383</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="9">
         <v>-0.285475625</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="12">
         <v>-0.182141918</v>
       </c>
       <c r="G109" s="6">
@@ -4381,16 +4390,16 @@
       <c r="B110" s="6">
         <v>0.245444568</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="9">
         <v>-0.210791079</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="9">
         <v>0.752366029</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="9">
         <v>-0.302021978</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="12">
         <v>-0.199983427</v>
       </c>
       <c r="G110" s="6">
@@ -4410,16 +4419,16 @@
       <c r="B111" s="6">
         <v>0.200548959</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="9">
         <v>-0.231971494</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="9">
         <v>0.693713086</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="9">
         <v>-0.27808103</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="12">
         <v>-0.218582901</v>
       </c>
       <c r="G111" s="6">
@@ -4439,16 +4448,16 @@
       <c r="B112" s="6">
         <v>0.155080184</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="9">
         <v>-0.216984161</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="9">
         <v>0.643453575</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="9">
         <v>-0.219490276</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="12">
         <v>-0.235004652</v>
       </c>
       <c r="G112" s="6">
@@ -4468,16 +4477,16 @@
       <c r="B113" s="6">
         <v>0.115798291</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="9">
         <v>-0.171539438</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="9">
         <v>0.607551335</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="9">
         <v>-0.136450899</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="12">
         <v>-0.247387304</v>
       </c>
       <c r="G113" s="6">
@@ -4497,16 +4506,16 @@
       <c r="B114" s="6">
         <v>0.087764408</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="9">
         <v>-0.106703497</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="9">
         <v>0.589684674</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="9">
         <v>-0.041241562</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="12">
         <v>-0.254898289</v>
       </c>
       <c r="G114" s="6">
@@ -4526,16 +4535,16 @@
       <c r="B115" s="6">
         <v>0.073463815</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="9">
         <v>-0.036647458</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="9">
         <v>0.59103566</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="9">
         <v>0.05372075</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="12">
         <v>-0.257384072</v>
       </c>
       <c r="G115" s="6">
@@ -4555,16 +4564,16 @@
       <c r="B116" s="6">
         <v>0.072532282</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="9">
         <v>0.024953116</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="9">
         <v>0.610395258</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="9">
         <v>0.137069338</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="12">
         <v>-0.255091939</v>
       </c>
       <c r="G116" s="6">
@@ -4584,16 +4593,16 @@
       <c r="B117" s="6">
         <v>0.082223474</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="9">
         <v>0.068433234</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="9">
         <v>0.644434375</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="9">
         <v>0.199062007</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="12">
         <v>-0.248590126</v>
       </c>
       <c r="G117" s="6">
@@ -4613,16 +4622,16 @@
       <c r="B118" s="6">
         <v>0.098430681</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="9">
         <v>0.089986433</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="9">
         <v>0.688099593</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="9">
         <v>0.232362426</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="12">
         <v>-0.238776113</v>
       </c>
       <c r="G118" s="6">
@@ -4642,16 +4651,16 @@
       <c r="B119" s="6">
         <v>0.116871913</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="9">
         <v>0.091476419</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="9">
         <v>0.735196975</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="9">
         <v>0.233075441</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="12">
         <v>-0.226866556</v>
       </c>
       <c r="G119" s="6">
@@ -4665,235 +4674,151 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/result/result3.xlsx
+++ b/result/result3.xlsx
@@ -171,8 +171,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -211,7 +211,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +234,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,31 +256,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,18 +287,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,9 +324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,17 +340,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,7 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,19 +409,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,97 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,25 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +617,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -625,24 +634,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,17 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -711,81 +696,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -794,74 +794,74 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,9 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1249,9 +1246,9 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:9">
       <c r="A2" s="5"/>
@@ -1287,25 +1284,25 @@
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
-        <v>-2.71051e-20</v>
+      <c r="C3" s="6">
+        <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>-1.08094e-20</v>
-      </c>
-      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>-0.0304125</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>5.42101e-20</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>-2.69433e-19</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>-1.05879e-21</v>
       </c>
     </row>
@@ -1316,16 +1313,16 @@
       <c r="B4" s="6">
         <v>0.053569058</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.386371072</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.002856658</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.028346956</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>-0.188152333</v>
       </c>
       <c r="G4" s="6">
@@ -1345,16 +1342,16 @@
       <c r="B5" s="6">
         <v>0.114018071</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.176128817</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.011522758</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.059034139</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>-0.345268396</v>
       </c>
       <c r="G5" s="6">
@@ -1374,16 +1371,16 @@
       <c r="B6" s="6">
         <v>0.12511999</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>-0.036843046</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.026127678</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.084919321</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>-0.346714822</v>
       </c>
       <c r="G6" s="6">
@@ -1403,16 +1400,16 @@
       <c r="B7" s="6">
         <v>0.110695685</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>-0.088557748</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.045185607</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.106792564</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>-0.294179921</v>
       </c>
       <c r="G7" s="6">
@@ -1432,16 +1429,16 @@
       <c r="B8" s="6">
         <v>0.091866545</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>-0.104893629</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.069254319</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.133973136</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>-0.271745195</v>
       </c>
       <c r="G8" s="6">
@@ -1461,16 +1458,16 @@
       <c r="B9" s="6">
         <v>0.065146536</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>-0.170955972</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.098883658</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.163490836</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>-0.277622011</v>
       </c>
       <c r="G9" s="6">
@@ -1490,16 +1487,16 @@
       <c r="B10" s="6">
         <v>0.021665443</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>-0.263567389</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.13516392</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.20006105</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>-0.28572527</v>
       </c>
       <c r="G10" s="6">
@@ -1519,16 +1516,16 @@
       <c r="B11" s="6">
         <v>-0.038588747</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>-0.332026874</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.179316716</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.24369835</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>-0.288069518</v>
       </c>
       <c r="G11" s="6">
@@ -1548,16 +1545,16 @@
       <c r="B12" s="6">
         <v>-0.107859984</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>-0.351703282</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.233905449</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.305330212</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>-0.289691425</v>
       </c>
       <c r="G12" s="6">
@@ -1577,16 +1574,16 @@
       <c r="B13" s="6">
         <v>-0.175542165</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>-0.315675044</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0.302590261</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0.384608591</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>-0.294178533</v>
       </c>
       <c r="G13" s="6">
@@ -1606,16 +1603,16 @@
       <c r="B14" s="6">
         <v>-0.230279715</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>-0.221587362</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>0.389007542</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>0.481803421</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>-0.299784775</v>
       </c>
       <c r="G14" s="6">
@@ -1635,16 +1632,16 @@
       <c r="B15" s="6">
         <v>-0.259841821</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>-0.062635189</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.495438472</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0.580873302</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>-0.302884094</v>
       </c>
       <c r="G15" s="6">
@@ -1664,16 +1661,16 @@
       <c r="B16" s="6">
         <v>-0.250631192</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.166949763</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0.619824455</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>0.65636512</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>-0.300106986</v>
       </c>
       <c r="G16" s="6">
@@ -1693,16 +1690,16 @@
       <c r="B17" s="6">
         <v>-0.188083168</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.470378806</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.754062038</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>0.673523422</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>-0.288043662</v>
       </c>
       <c r="G17" s="6">
@@ -1722,16 +1719,16 @@
       <c r="B18" s="6">
         <v>-0.05889879</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.82549576</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0.883705294</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>0.608680988</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>-0.263147696</v>
       </c>
       <c r="G18" s="6">
@@ -1751,16 +1748,16 @@
       <c r="B19" s="6">
         <v>0.140253233</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>1.149810666</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0.992274428</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>0.466047241</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>-0.22336982</v>
       </c>
       <c r="G19" s="6">
@@ -1780,16 +1777,16 @@
       <c r="B20" s="6">
         <v>0.388583646</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>1.287160255</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>1.067149037</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0.279115549</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>-0.17244585</v>
       </c>
       <c r="G20" s="6">
@@ -1809,16 +1806,16 @@
       <c r="B21" s="6">
         <v>0.63211254</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>1.085065177</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>1.103811958</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.089689327</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>-0.121185537</v>
       </c>
       <c r="G21" s="6">
@@ -1838,16 +1835,16 @@
       <c r="B22" s="6">
         <v>0.799393927</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0.541519753</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>1.104298351</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>-0.08140286</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>-0.08350758</v>
       </c>
       <c r="G22" s="6">
@@ -1867,16 +1864,16 @@
       <c r="B23" s="6">
         <v>0.837711553</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>-0.165462867</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>1.072490809</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>-0.233878814</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>-0.069420147</v>
       </c>
       <c r="G23" s="6">
@@ -1896,16 +1893,16 @@
       <c r="B24" s="6">
         <v>0.737897508</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>-0.80517814</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>1.011892169</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>-0.368837157</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>-0.081524104</v>
       </c>
       <c r="G24" s="6">
@@ -1925,16 +1922,16 @@
       <c r="B25" s="6">
         <v>0.530564426</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>-1.225226608</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.926606832</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>-0.478795153</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>-0.116052599</v>
       </c>
       <c r="G25" s="6">
@@ -1954,16 +1951,16 @@
       <c r="B26" s="6">
         <v>0.264993277</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>-1.390284797</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.823001566</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>-0.549281481</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>-0.165365549</v>
       </c>
       <c r="G26" s="6">
@@ -1983,16 +1980,16 @@
       <c r="B27" s="6">
         <v>-0.011462369</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>-1.344199729</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.710538349</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>-0.565606099</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>-0.219387017</v>
       </c>
       <c r="G27" s="6">
@@ -2012,16 +2009,16 @@
       <c r="B28" s="6">
         <v>-0.262399314</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>-1.14321211</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.600516847</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>-0.526068661</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>-0.267967434</v>
       </c>
       <c r="G28" s="6">
@@ -2041,16 +2038,16 @@
       <c r="B29" s="6">
         <v>-0.461264332</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>-0.829740615</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.503079531</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>-0.442109147</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>-0.304998345</v>
       </c>
       <c r="G29" s="6">
@@ -2070,16 +2067,16 @@
       <c r="B30" s="6">
         <v>-0.589126824</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>-0.438912978</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.425487255</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>-0.331092146</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>-0.32921939</v>
       </c>
       <c r="G30" s="6">
@@ -2099,16 +2096,16 @@
       <c r="B31" s="6">
         <v>-0.634313308</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>-0.010740442</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>0.371228571</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>-0.210754697</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>-0.342209999</v>
       </c>
       <c r="G31" s="6">
@@ -2128,16 +2125,16 @@
       <c r="B32" s="6">
         <v>-0.594190734</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>0.406031839</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>0.341262135</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>-0.089294958</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>-0.345242955</v>
       </c>
       <c r="G32" s="6">
@@ -2157,16 +2154,16 @@
       <c r="B33" s="6">
         <v>-0.475846685</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>0.763758658</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0.33531774</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>0.029639011</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>-0.338983382</v>
       </c>
       <c r="G33" s="6">
@@ -2186,16 +2183,16 @@
       <c r="B34" s="6">
         <v>-0.295430842</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>1.020805451</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>0.35308052</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>0.147713284</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>-0.324306966</v>
       </c>
       <c r="G34" s="6">
@@ -2215,16 +2212,16 @@
       <c r="B35" s="6">
         <v>-0.076225872</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>1.147720776</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>0.394211562</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>0.262993487</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>-0.302958306</v>
       </c>
       <c r="G35" s="6">
@@ -2244,16 +2241,16 @@
       <c r="B36" s="6">
         <v>0.153872518</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>1.128508974</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>0.457848357</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0.371452818</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>-0.27714132</v>
       </c>
       <c r="G36" s="6">
@@ -2273,16 +2270,16 @@
       <c r="B37" s="6">
         <v>0.365496103</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>0.964565597</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>0.541603342</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>0.462130039</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>-0.249112527</v>
       </c>
       <c r="G37" s="6">
@@ -2302,16 +2299,16 @@
       <c r="B38" s="6">
         <v>0.531195418</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>0.673741249</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.640707456</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>0.52283601</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>-0.220784193</v>
       </c>
       <c r="G38" s="6">
@@ -2331,16 +2328,16 @@
       <c r="B39" s="6">
         <v>0.628934862</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>0.292641027</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>0.74790791</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>0.541325331</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>-0.193810139</v>
       </c>
       <c r="G39" s="6">
@@ -2360,16 +2357,16 @@
       <c r="B40" s="6">
         <v>0.645887668</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>-0.123142618</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>0.853934631</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>0.510412996</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>-0.169888098</v>
       </c>
       <c r="G40" s="6">
@@ -2389,16 +2386,16 @@
       <c r="B41" s="6">
         <v>0.582519222</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>-0.495597573</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>0.94859767</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>0.427442378</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <v>-0.150972079</v>
       </c>
       <c r="G41" s="6">
@@ -2418,16 +2415,16 @@
       <c r="B42" s="6">
         <v>0.456930261</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>-0.729232214</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>1.021434389</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>0.292470848</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>-0.139288657</v>
       </c>
       <c r="G42" s="6">
@@ -2447,16 +2444,16 @@
       <c r="B43" s="6">
         <v>0.305519203</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>-0.745191394</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>1.062445078</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>0.110764085</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <v>-0.136451993</v>
       </c>
       <c r="G43" s="6">
@@ -2476,16 +2473,16 @@
       <c r="B44" s="6">
         <v>0.173627906</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>-0.543772755</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>1.063700512</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>-0.100939497</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>-0.142820521</v>
       </c>
       <c r="G44" s="6">
@@ -2505,16 +2502,16 @@
       <c r="B45" s="6">
         <v>0.095209335</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>-0.235858994</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>1.022197854</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>-0.31054829</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>-0.157504045</v>
       </c>
       <c r="G45" s="6">
@@ -2534,16 +2531,16 @@
       <c r="B46" s="6">
         <v>0.076098034</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>0.026526934</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>0.94207543</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>-0.48170317</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>-0.178168155</v>
       </c>
       <c r="G46" s="6">
@@ -2563,16 +2560,16 @@
       <c r="B47" s="6">
         <v>0.096231234</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>0.148221947</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>0.833739796</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>-0.590169861</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <v>-0.200502346</v>
       </c>
       <c r="G47" s="6">
@@ -2592,16 +2589,16 @@
       <c r="B48" s="6">
         <v>0.125341174</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>0.121238985</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>0.710594169</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>-0.630350609</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>-0.219682468</v>
       </c>
       <c r="G48" s="6">
@@ -2621,16 +2618,16 @@
       <c r="B49" s="6">
         <v>0.138153057</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>-0.003934228</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>0.585567774</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>-0.611177537</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>-0.234039298</v>
       </c>
       <c r="G49" s="6">
@@ -2650,16 +2647,16 @@
       <c r="B50" s="6">
         <v>0.121662671</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>-0.161056505</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>0.469048011</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>-0.548312147</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <v>-0.245925221</v>
       </c>
       <c r="G50" s="6">
@@ -2679,16 +2676,16 @@
       <c r="B51" s="6">
         <v>0.075387115</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>-0.294102368</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>0.367856931</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>-0.461044984</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>-0.258770966</v>
       </c>
       <c r="G51" s="6">
@@ -2708,16 +2705,16 @@
       <c r="B52" s="6">
         <v>0.008026341</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>-0.36762018</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>0.28523361</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>-0.364519599</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>-0.273941725</v>
       </c>
       <c r="G52" s="6">
@@ -2737,16 +2734,16 @@
       <c r="B53" s="6">
         <v>-0.06645342</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>-0.363564271</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>0.222058556</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>-0.267640082</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="11">
         <v>-0.29026823</v>
       </c>
       <c r="G53" s="6">
@@ -2766,16 +2763,16 @@
       <c r="B54" s="6">
         <v>-0.132054112</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>-0.279852525</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>0.178008723</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>-0.173133647</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <v>-0.305652739</v>
       </c>
       <c r="G54" s="6">
@@ -2795,16 +2792,16 @@
       <c r="B55" s="6">
         <v>-0.17395279</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>-0.129968527</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>0.152749993</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>-0.079437751</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <v>-0.318061469</v>
       </c>
       <c r="G55" s="6">
@@ -2824,16 +2821,16 @@
       <c r="B56" s="6">
         <v>-0.181390525</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>0.059386983</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>0.146382176</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>0.016572569</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <v>-0.325845643</v>
       </c>
       <c r="G56" s="6">
@@ -2853,16 +2850,16 @@
       <c r="B57" s="6">
         <v>-0.149911349</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>0.252980755</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>0.159831511</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>0.11926548</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>-0.327796199</v>
       </c>
       <c r="G57" s="6">
@@ -2882,16 +2879,16 @@
       <c r="B58" s="6">
         <v>-0.082407686</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>0.413570963</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>0.194712033</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>0.231289127</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>-0.323387445</v>
       </c>
       <c r="G58" s="6">
@@ -2911,16 +2908,16 @@
       <c r="B59" s="6">
         <v>0.011100329</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>0.508290317</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>0.253007103</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>0.352945067</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>-0.312886203</v>
       </c>
       <c r="G59" s="6">
@@ -2940,16 +2937,16 @@
       <c r="B60" s="6">
         <v>0.115024051</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>0.515287632</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>0.336129975</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>0.477975118</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>-0.297273884</v>
       </c>
       <c r="G60" s="6">
@@ -2969,16 +2966,16 @@
       <c r="B61" s="6">
         <v>0.210965341</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>0.429275179</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>0.443514333</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>0.592422987</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>-0.27788477</v>
       </c>
       <c r="G61" s="6">
@@ -2998,16 +2995,16 @@
       <c r="B62" s="6">
         <v>0.281557079</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>0.266346606</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>0.570911668</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>0.67403297</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>-0.256028991</v>
       </c>
       <c r="G62" s="6">
@@ -3027,16 +3024,16 @@
       <c r="B63" s="6">
         <v>0.314871537</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>0.064576276</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>0.709354347</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>0.699252385</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>-0.232615365</v>
       </c>
       <c r="G63" s="6">
@@ -3056,16 +3053,16 @@
       <c r="B64" s="6">
         <v>0.308533992</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>-0.119736941</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>0.845680045</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>0.650932699</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>-0.208176421</v>
       </c>
       <c r="G64" s="6">
@@ -3085,16 +3082,16 @@
       <c r="B65" s="6">
         <v>0.27238118</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>-0.223413422</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>0.964482608</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>0.524390761</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>-0.183467768</v>
       </c>
       <c r="G65" s="6">
@@ -3114,16 +3111,16 @@
       <c r="B66" s="6">
         <v>0.227835313</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>-0.198940614</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>1.050790653</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>0.328647522</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>-0.16040262</v>
       </c>
       <c r="G66" s="6">
@@ -3143,16 +3140,16 @@
       <c r="B67" s="6">
         <v>0.201042901</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>-0.053926841</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>1.092862217</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>0.087203264</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>-0.142494406</v>
       </c>
       <c r="G67" s="6">
@@ -3172,16 +3169,16 @@
       <c r="B68" s="6">
         <v>0.208629001</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>0.125608791</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>1.085060093</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>-0.163335575</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>-0.133990889</v>
       </c>
       <c r="G68" s="6">
@@ -3201,16 +3198,16 @@
       <c r="B69" s="6">
         <v>0.246132946</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>0.230193294</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>1.029537299</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>-0.384118264</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>-0.137928752</v>
       </c>
       <c r="G69" s="6">
@@ -3230,16 +3227,16 @@
       <c r="B70" s="6">
         <v>0.292104189</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>0.208211943</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>0.935358506</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>-0.546160627</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>-0.153940047</v>
       </c>
       <c r="G70" s="6">
@@ -3259,16 +3256,16 @@
       <c r="B71" s="6">
         <v>0.322096225</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>0.07764076</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>0.816057139</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>-0.633928011</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <v>-0.177790062</v>
       </c>
       <c r="G71" s="6">
@@ -3288,16 +3285,16 @@
       <c r="B72" s="6">
         <v>0.319583002</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>-0.106569039</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>0.686879581</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>-0.645633806</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>-0.204015366</v>
       </c>
       <c r="G72" s="6">
@@ -3317,16 +3314,16 @@
       <c r="B73" s="6">
         <v>0.279842666</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>-0.28555226</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>0.562334623</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>-0.589669009</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>-0.228928804</v>
       </c>
       <c r="G73" s="6">
@@ -3346,16 +3343,16 @@
       <c r="B74" s="6">
         <v>0.208917934</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>-0.411926804</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>0.45438041</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>-0.483414813</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>-0.251220693</v>
       </c>
       <c r="G74" s="6">
@@ -3375,16 +3372,16 @@
       <c r="B75" s="6">
         <v>0.12037787</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>-0.459595608</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>0.370827082</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>-0.348981066</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>-0.270990445</v>
       </c>
       <c r="G75" s="6">
@@ -3404,16 +3401,16 @@
       <c r="B76" s="6">
         <v>0.030485323</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>-0.426678457</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>0.315551836</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>-0.202994857</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>-0.287859184</v>
       </c>
       <c r="G76" s="6">
@@ -3433,16 +3430,16 @@
       <c r="B77" s="6">
         <v>-0.04586744</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>-0.327790578</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>0.289650806</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>-0.056270022</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>-0.300724684</v>
       </c>
       <c r="G77" s="6">
@@ -3462,16 +3459,16 @@
       <c r="B78" s="6">
         <v>-0.097950107</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>-0.188754901</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>0.292927756</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>0.088605963</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>-0.308404033</v>
       </c>
       <c r="G78" s="6">
@@ -3491,16 +3488,16 @@
       <c r="B79" s="6">
         <v>-0.120632122</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>-0.038629368</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>0.324822024</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>0.229486703</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>-0.310198623</v>
       </c>
       <c r="G79" s="6">
@@ -3520,16 +3517,16 @@
       <c r="B80" s="6">
         <v>-0.11448067</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>0.095682242</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="8">
         <v>0.384269171</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>0.363233112</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>-0.305988171</v>
       </c>
       <c r="G80" s="6">
@@ -3549,16 +3546,16 @@
       <c r="B81" s="6">
         <v>-0.084580504</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>0.197126302</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="8">
         <v>0.468967987</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>0.479606712</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="11">
         <v>-0.296045846</v>
       </c>
       <c r="G81" s="6">
@@ -3578,16 +3575,16 @@
       <c r="B82" s="6">
         <v>-0.03807409</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>0.262443052</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="8">
         <v>0.573868283</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>0.562164146</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <v>-0.280833103</v>
       </c>
       <c r="G82" s="6">
@@ -3607,16 +3604,16 @@
       <c r="B83" s="6">
         <v>0.018712961</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>0.302724524</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="8">
         <v>0.690267555</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>0.591443778</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="11">
         <v>-0.260716128</v>
       </c>
       <c r="G83" s="6">
@@ -3636,16 +3633,16 @@
       <c r="B84" s="6">
         <v>0.082505533</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>0.335065667</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="8">
         <v>0.805941967</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>0.553625367</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <v>-0.236033754</v>
       </c>
       <c r="G84" s="6">
@@ -3665,16 +3662,16 @@
       <c r="B85" s="6">
         <v>0.152830246</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>0.368011759</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>0.907170095</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>0.448108693</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="11">
         <v>-0.207618778</v>
       </c>
       <c r="G85" s="6">
@@ -3694,16 +3691,16 @@
       <c r="B86" s="6">
         <v>0.228954491</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>0.388836955</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="8">
         <v>0.981592524</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <v>0.289088795</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <v>-0.178030766</v>
       </c>
       <c r="G86" s="6">
@@ -3723,16 +3720,16 @@
       <c r="B87" s="6">
         <v>0.305386009</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>0.365182261</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="8">
         <v>1.0209059</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>0.101615818</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="11">
         <v>-0.151987019</v>
       </c>
       <c r="G87" s="6">
@@ -3752,16 +3749,16 @@
       <c r="B88" s="6">
         <v>0.37023513</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>0.270837542</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="8">
         <v>1.022147294</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>-0.087388014</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <v>-0.135194617</v>
       </c>
       <c r="G88" s="6">
@@ -3781,16 +3778,16 @@
       <c r="B89" s="6">
         <v>0.409303982</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>0.111332602</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="8">
         <v>0.987382921</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>-0.255091222</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="11">
         <v>-0.131827221</v>
       </c>
       <c r="G89" s="6">
@@ -3810,16 +3807,16 @@
       <c r="B90" s="6">
         <v>0.412768052</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>-0.077997582</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="8">
         <v>0.922711443</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <v>-0.38393508</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="11">
         <v>-0.142559116</v>
       </c>
       <c r="G90" s="6">
@@ -3839,16 +3836,16 @@
       <c r="B91" s="6">
         <v>0.378932098</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>-0.255378058</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="8">
         <v>0.837264957</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>-0.461121227</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <v>-0.164553459</v>
       </c>
       <c r="G91" s="6">
@@ -3868,16 +3865,16 @@
       <c r="B92" s="6">
         <v>0.313475472</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>-0.390322704</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>0.742196058</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>-0.479589523</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="11">
         <v>-0.192754638</v>
       </c>
       <c r="G92" s="6">
@@ -3897,16 +3894,16 @@
       <c r="B93" s="6">
         <v>0.226829125</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>-0.465159017</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>0.649293323</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>-0.440404481</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="11">
         <v>-0.221639791</v>
       </c>
       <c r="G93" s="6">
@@ -3926,16 +3923,16 @@
       <c r="B94" s="6">
         <v>0.131996626</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>-0.471558726</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="8">
         <v>0.569239007</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="8">
         <v>-0.353341992</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="11">
         <v>-0.246976565</v>
       </c>
       <c r="G94" s="6">
@@ -3955,16 +3952,16 @@
       <c r="B95" s="6">
         <v>0.042676851</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>-0.41130052</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="8">
         <v>0.510120309</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="8">
         <v>-0.23385763</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="11">
         <v>-0.266629946</v>
       </c>
       <c r="G95" s="6">
@@ -3984,16 +3981,16 @@
       <c r="B96" s="6">
         <v>-0.028959702</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>-0.297916102</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="8">
         <v>0.47674759</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="8">
         <v>-0.09849524</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="11">
         <v>-0.28000446</v>
       </c>
       <c r="G96" s="6">
@@ -4013,16 +4010,16 @@
       <c r="B97" s="6">
         <v>-0.0744657</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <v>-0.154259832</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="8">
         <v>0.470839605</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="8">
         <v>0.038721476</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="11">
         <v>-0.287014415</v>
       </c>
       <c r="G97" s="6">
@@ -4042,16 +4039,16 @@
       <c r="B98" s="6">
         <v>-0.090360348</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <v>-0.005917515</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="8">
         <v>0.491597784</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <v>0.166390791</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="11">
         <v>-0.287634176</v>
       </c>
       <c r="G98" s="6">
@@ -4071,16 +4068,16 @@
       <c r="B99" s="6">
         <v>-0.077990255</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>0.125345178</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="8">
         <v>0.536060337</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>0.274006344</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="11">
         <v>-0.282049423</v>
       </c>
       <c r="G99" s="6">
@@ -4100,16 +4097,16 @@
       <c r="B100" s="6">
         <v>-0.042293774</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>0.225850599</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="8">
         <v>0.599143291</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <v>0.350783294</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="11">
         <v>-0.270817336</v>
       </c>
       <c r="G100" s="6">
@@ -4129,16 +4126,16 @@
       <c r="B101" s="6">
         <v>0.00997201</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>0.290903831</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>0.673642744</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <v>0.386727563</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="11">
         <v>-0.254847099</v>
       </c>
       <c r="G101" s="6">
@@ -4158,16 +4155,16 @@
       <c r="B102" s="6">
         <v>0.071805081</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="8">
         <v>0.322061732</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <v>0.750689138</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <v>0.375728137</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="11">
         <v>-0.23534788</v>
       </c>
       <c r="G102" s="6">
@@ -4187,16 +4184,16 @@
       <c r="B103" s="6">
         <v>0.136743072</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="8">
         <v>0.322316726</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="8">
         <v>0.820831317</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <v>0.318459205</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="11">
         <v>-0.213975146</v>
       </c>
       <c r="G103" s="6">
@@ -4216,16 +4213,16 @@
       <c r="B104" s="6">
         <v>0.198723192</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="8">
         <v>0.292381202</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="8">
         <v>0.875534423</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="8">
         <v>0.22331465</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="11">
         <v>-0.193061565</v>
       </c>
       <c r="G104" s="6">
@@ -4245,16 +4242,16 @@
       <c r="B105" s="6">
         <v>0.251635487</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="8">
         <v>0.231671414</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="8">
         <v>0.908576806</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <v>0.104551064</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="11">
         <v>-0.175587814</v>
       </c>
       <c r="G105" s="6">
@@ -4274,16 +4271,16 @@
       <c r="B106" s="6">
         <v>0.289529829</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="8">
         <v>0.143321273</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="8">
         <v>0.916907077</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="8">
         <v>-0.020947549</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="11">
         <v>-0.164582992</v>
       </c>
       <c r="G106" s="6">
@@ -4303,16 +4300,16 @@
       <c r="B107" s="6">
         <v>0.307835824</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="8">
         <v>0.038272715</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="8">
         <v>0.900854114</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="8">
         <v>-0.136679812</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="11">
         <v>-0.162122493</v>
       </c>
       <c r="G107" s="6">
@@ -4332,16 +4329,16 @@
       <c r="B108" s="6">
         <v>0.304863129</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="8">
         <v>-0.066416378</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="8">
         <v>0.863842388</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="8">
         <v>-0.228419804</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="11">
         <v>-0.168516018</v>
       </c>
       <c r="G108" s="6">
@@ -4361,16 +4358,16 @@
       <c r="B109" s="6">
         <v>0.28244978</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="8">
         <v>-0.153572251</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="8">
         <v>0.811809383</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <v>-0.285475625</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="11">
         <v>-0.182141918</v>
       </c>
       <c r="G109" s="6">
@@ -4390,16 +4387,16 @@
       <c r="B110" s="6">
         <v>0.245444568</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="8">
         <v>-0.210791079</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="8">
         <v>0.752366029</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="8">
         <v>-0.302021978</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="11">
         <v>-0.199983427</v>
       </c>
       <c r="G110" s="6">
@@ -4419,16 +4416,16 @@
       <c r="B111" s="6">
         <v>0.200548959</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="8">
         <v>-0.231971494</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="8">
         <v>0.693713086</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>-0.27808103</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="11">
         <v>-0.218582901</v>
       </c>
       <c r="G111" s="6">
@@ -4448,16 +4445,16 @@
       <c r="B112" s="6">
         <v>0.155080184</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="8">
         <v>-0.216984161</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="8">
         <v>0.643453575</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <v>-0.219490276</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="11">
         <v>-0.235004652</v>
       </c>
       <c r="G112" s="6">
@@ -4477,16 +4474,16 @@
       <c r="B113" s="6">
         <v>0.115798291</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="8">
         <v>-0.171539438</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="8">
         <v>0.607551335</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <v>-0.136450899</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="11">
         <v>-0.247387304</v>
       </c>
       <c r="G113" s="6">
@@ -4506,16 +4503,16 @@
       <c r="B114" s="6">
         <v>0.087764408</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="8">
         <v>-0.106703497</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="8">
         <v>0.589684674</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <v>-0.041241562</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="11">
         <v>-0.254898289</v>
       </c>
       <c r="G114" s="6">
@@ -4535,16 +4532,16 @@
       <c r="B115" s="6">
         <v>0.073463815</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="8">
         <v>-0.036647458</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="8">
         <v>0.59103566</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="8">
         <v>0.05372075</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="11">
         <v>-0.257384072</v>
       </c>
       <c r="G115" s="6">
@@ -4564,16 +4561,16 @@
       <c r="B116" s="6">
         <v>0.072532282</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <v>0.024953116</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <v>0.610395258</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="8">
         <v>0.137069338</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="11">
         <v>-0.255091939</v>
       </c>
       <c r="G116" s="6">
@@ -4593,16 +4590,16 @@
       <c r="B117" s="6">
         <v>0.082223474</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="8">
         <v>0.068433234</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="8">
         <v>0.644434375</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <v>0.199062007</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="11">
         <v>-0.248590126</v>
       </c>
       <c r="G117" s="6">
@@ -4622,16 +4619,16 @@
       <c r="B118" s="6">
         <v>0.098430681</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="8">
         <v>0.089986433</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="8">
         <v>0.688099593</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="8">
         <v>0.232362426</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="11">
         <v>-0.238776113</v>
       </c>
       <c r="G118" s="6">
@@ -4651,16 +4648,16 @@
       <c r="B119" s="6">
         <v>0.116871913</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="8">
         <v>0.091476419</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="8">
         <v>0.735196975</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="8">
         <v>0.233075441</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="11">
         <v>-0.226866556</v>
       </c>
       <c r="G119" s="6">
@@ -4674,151 +4671,151 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="13"/>
-      <c r="B131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="13"/>
-      <c r="B132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="13"/>
-      <c r="B135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="13"/>
-      <c r="B136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="13"/>
-      <c r="B137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="13"/>
-      <c r="B139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="13"/>
-      <c r="B140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/result/result3.xlsx
+++ b/result/result3.xlsx
@@ -169,9 +169,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -211,22 +211,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -241,38 +240,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,17 +272,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,14 +295,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,18 +331,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,13 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,13 +403,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,37 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,25 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,61 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,28 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,17 +632,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +658,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -693,6 +678,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,94 +716,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,56 +812,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,9 +890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1284,7 +1281,7 @@
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3" s="7">
@@ -1296,14 +1293,14 @@
       <c r="F3" s="9">
         <v>-0.0304125</v>
       </c>
-      <c r="G3" s="10">
-        <v>5.42101e-20</v>
-      </c>
-      <c r="H3" s="10">
-        <v>-2.69433e-19</v>
-      </c>
-      <c r="I3" s="10">
-        <v>-1.05879e-21</v>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:9">
@@ -1583,7 +1580,7 @@
       <c r="E13" s="8">
         <v>0.384608591</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>-0.294178533</v>
       </c>
       <c r="G13" s="6">
@@ -1612,7 +1609,7 @@
       <c r="E14" s="8">
         <v>0.481803421</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>-0.299784775</v>
       </c>
       <c r="G14" s="6">
@@ -1641,7 +1638,7 @@
       <c r="E15" s="8">
         <v>0.580873302</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>-0.302884094</v>
       </c>
       <c r="G15" s="6">
@@ -1670,7 +1667,7 @@
       <c r="E16" s="8">
         <v>0.65636512</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>-0.300106986</v>
       </c>
       <c r="G16" s="6">
@@ -1699,7 +1696,7 @@
       <c r="E17" s="8">
         <v>0.673523422</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>-0.288043662</v>
       </c>
       <c r="G17" s="6">
@@ -1728,7 +1725,7 @@
       <c r="E18" s="8">
         <v>0.608680988</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>-0.263147696</v>
       </c>
       <c r="G18" s="6">
@@ -1757,7 +1754,7 @@
       <c r="E19" s="8">
         <v>0.466047241</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>-0.22336982</v>
       </c>
       <c r="G19" s="6">
@@ -1786,7 +1783,7 @@
       <c r="E20" s="8">
         <v>0.279115549</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>-0.17244585</v>
       </c>
       <c r="G20" s="6">
@@ -1815,7 +1812,7 @@
       <c r="E21" s="8">
         <v>0.089689327</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>-0.121185537</v>
       </c>
       <c r="G21" s="6">
@@ -1844,7 +1841,7 @@
       <c r="E22" s="8">
         <v>-0.08140286</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>-0.08350758</v>
       </c>
       <c r="G22" s="6">
@@ -1873,7 +1870,7 @@
       <c r="E23" s="8">
         <v>-0.233878814</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>-0.069420147</v>
       </c>
       <c r="G23" s="6">
@@ -1902,7 +1899,7 @@
       <c r="E24" s="8">
         <v>-0.368837157</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>-0.081524104</v>
       </c>
       <c r="G24" s="6">
@@ -1931,7 +1928,7 @@
       <c r="E25" s="8">
         <v>-0.478795153</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>-0.116052599</v>
       </c>
       <c r="G25" s="6">
@@ -1960,7 +1957,7 @@
       <c r="E26" s="8">
         <v>-0.549281481</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>-0.165365549</v>
       </c>
       <c r="G26" s="6">
@@ -1989,7 +1986,7 @@
       <c r="E27" s="8">
         <v>-0.565606099</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>-0.219387017</v>
       </c>
       <c r="G27" s="6">
@@ -2018,7 +2015,7 @@
       <c r="E28" s="8">
         <v>-0.526068661</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>-0.267967434</v>
       </c>
       <c r="G28" s="6">
@@ -2047,7 +2044,7 @@
       <c r="E29" s="8">
         <v>-0.442109147</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>-0.304998345</v>
       </c>
       <c r="G29" s="6">
@@ -2076,7 +2073,7 @@
       <c r="E30" s="8">
         <v>-0.331092146</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>-0.32921939</v>
       </c>
       <c r="G30" s="6">
@@ -2105,7 +2102,7 @@
       <c r="E31" s="8">
         <v>-0.210754697</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>-0.342209999</v>
       </c>
       <c r="G31" s="6">
@@ -2134,7 +2131,7 @@
       <c r="E32" s="8">
         <v>-0.089294958</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>-0.345242955</v>
       </c>
       <c r="G32" s="6">
@@ -2163,7 +2160,7 @@
       <c r="E33" s="8">
         <v>0.029639011</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>-0.338983382</v>
       </c>
       <c r="G33" s="6">
@@ -2192,7 +2189,7 @@
       <c r="E34" s="8">
         <v>0.147713284</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>-0.324306966</v>
       </c>
       <c r="G34" s="6">
@@ -2221,7 +2218,7 @@
       <c r="E35" s="8">
         <v>0.262993487</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>-0.302958306</v>
       </c>
       <c r="G35" s="6">
@@ -2250,7 +2247,7 @@
       <c r="E36" s="8">
         <v>0.371452818</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>-0.27714132</v>
       </c>
       <c r="G36" s="6">
@@ -2279,7 +2276,7 @@
       <c r="E37" s="8">
         <v>0.462130039</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>-0.249112527</v>
       </c>
       <c r="G37" s="6">
@@ -2308,7 +2305,7 @@
       <c r="E38" s="8">
         <v>0.52283601</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>-0.220784193</v>
       </c>
       <c r="G38" s="6">
@@ -2337,7 +2334,7 @@
       <c r="E39" s="8">
         <v>0.541325331</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>-0.193810139</v>
       </c>
       <c r="G39" s="6">
@@ -2366,7 +2363,7 @@
       <c r="E40" s="8">
         <v>0.510412996</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>-0.169888098</v>
       </c>
       <c r="G40" s="6">
@@ -2395,7 +2392,7 @@
       <c r="E41" s="8">
         <v>0.427442378</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>-0.150972079</v>
       </c>
       <c r="G41" s="6">
@@ -2424,7 +2421,7 @@
       <c r="E42" s="8">
         <v>0.292470848</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>-0.139288657</v>
       </c>
       <c r="G42" s="6">
@@ -2453,7 +2450,7 @@
       <c r="E43" s="8">
         <v>0.110764085</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>-0.136451993</v>
       </c>
       <c r="G43" s="6">
@@ -2482,7 +2479,7 @@
       <c r="E44" s="8">
         <v>-0.100939497</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>-0.142820521</v>
       </c>
       <c r="G44" s="6">
@@ -2511,7 +2508,7 @@
       <c r="E45" s="8">
         <v>-0.31054829</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>-0.157504045</v>
       </c>
       <c r="G45" s="6">
@@ -2540,7 +2537,7 @@
       <c r="E46" s="8">
         <v>-0.48170317</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>-0.178168155</v>
       </c>
       <c r="G46" s="6">
@@ -2569,7 +2566,7 @@
       <c r="E47" s="8">
         <v>-0.590169861</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>-0.200502346</v>
       </c>
       <c r="G47" s="6">
@@ -2598,7 +2595,7 @@
       <c r="E48" s="8">
         <v>-0.630350609</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>-0.219682468</v>
       </c>
       <c r="G48" s="6">
@@ -2627,7 +2624,7 @@
       <c r="E49" s="8">
         <v>-0.611177537</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>-0.234039298</v>
       </c>
       <c r="G49" s="6">
@@ -2656,7 +2653,7 @@
       <c r="E50" s="8">
         <v>-0.548312147</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>-0.245925221</v>
       </c>
       <c r="G50" s="6">
@@ -2685,7 +2682,7 @@
       <c r="E51" s="8">
         <v>-0.461044984</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>-0.258770966</v>
       </c>
       <c r="G51" s="6">
@@ -2714,7 +2711,7 @@
       <c r="E52" s="8">
         <v>-0.364519599</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>-0.273941725</v>
       </c>
       <c r="G52" s="6">
@@ -2743,7 +2740,7 @@
       <c r="E53" s="8">
         <v>-0.267640082</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>-0.29026823</v>
       </c>
       <c r="G53" s="6">
@@ -2772,7 +2769,7 @@
       <c r="E54" s="8">
         <v>-0.173133647</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>-0.305652739</v>
       </c>
       <c r="G54" s="6">
@@ -2801,7 +2798,7 @@
       <c r="E55" s="8">
         <v>-0.079437751</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>-0.318061469</v>
       </c>
       <c r="G55" s="6">
@@ -2830,7 +2827,7 @@
       <c r="E56" s="8">
         <v>0.016572569</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>-0.325845643</v>
       </c>
       <c r="G56" s="6">
@@ -2859,7 +2856,7 @@
       <c r="E57" s="8">
         <v>0.11926548</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>-0.327796199</v>
       </c>
       <c r="G57" s="6">
@@ -2888,7 +2885,7 @@
       <c r="E58" s="8">
         <v>0.231289127</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>-0.323387445</v>
       </c>
       <c r="G58" s="6">
@@ -2917,7 +2914,7 @@
       <c r="E59" s="8">
         <v>0.352945067</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>-0.312886203</v>
       </c>
       <c r="G59" s="6">
@@ -2946,7 +2943,7 @@
       <c r="E60" s="8">
         <v>0.477975118</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>-0.297273884</v>
       </c>
       <c r="G60" s="6">
@@ -2975,7 +2972,7 @@
       <c r="E61" s="8">
         <v>0.592422987</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>-0.27788477</v>
       </c>
       <c r="G61" s="6">
@@ -3004,7 +3001,7 @@
       <c r="E62" s="8">
         <v>0.67403297</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>-0.256028991</v>
       </c>
       <c r="G62" s="6">
@@ -3033,7 +3030,7 @@
       <c r="E63" s="8">
         <v>0.699252385</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>-0.232615365</v>
       </c>
       <c r="G63" s="6">
@@ -3062,7 +3059,7 @@
       <c r="E64" s="8">
         <v>0.650932699</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>-0.208176421</v>
       </c>
       <c r="G64" s="6">
@@ -3091,7 +3088,7 @@
       <c r="E65" s="8">
         <v>0.524390761</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>-0.183467768</v>
       </c>
       <c r="G65" s="6">
@@ -3120,7 +3117,7 @@
       <c r="E66" s="8">
         <v>0.328647522</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>-0.16040262</v>
       </c>
       <c r="G66" s="6">
@@ -3149,7 +3146,7 @@
       <c r="E67" s="8">
         <v>0.087203264</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>-0.142494406</v>
       </c>
       <c r="G67" s="6">
@@ -3178,7 +3175,7 @@
       <c r="E68" s="8">
         <v>-0.163335575</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>-0.133990889</v>
       </c>
       <c r="G68" s="6">
@@ -3207,7 +3204,7 @@
       <c r="E69" s="8">
         <v>-0.384118264</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>-0.137928752</v>
       </c>
       <c r="G69" s="6">
@@ -3236,7 +3233,7 @@
       <c r="E70" s="8">
         <v>-0.546160627</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>-0.153940047</v>
       </c>
       <c r="G70" s="6">
@@ -3265,7 +3262,7 @@
       <c r="E71" s="8">
         <v>-0.633928011</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>-0.177790062</v>
       </c>
       <c r="G71" s="6">
@@ -3294,7 +3291,7 @@
       <c r="E72" s="8">
         <v>-0.645633806</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>-0.204015366</v>
       </c>
       <c r="G72" s="6">
@@ -3323,7 +3320,7 @@
       <c r="E73" s="8">
         <v>-0.589669009</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>-0.228928804</v>
       </c>
       <c r="G73" s="6">
@@ -3352,7 +3349,7 @@
       <c r="E74" s="8">
         <v>-0.483414813</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>-0.251220693</v>
       </c>
       <c r="G74" s="6">
@@ -3381,7 +3378,7 @@
       <c r="E75" s="8">
         <v>-0.348981066</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>-0.270990445</v>
       </c>
       <c r="G75" s="6">
@@ -3410,7 +3407,7 @@
       <c r="E76" s="8">
         <v>-0.202994857</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>-0.287859184</v>
       </c>
       <c r="G76" s="6">
@@ -3439,7 +3436,7 @@
       <c r="E77" s="8">
         <v>-0.056270022</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>-0.300724684</v>
       </c>
       <c r="G77" s="6">
@@ -3468,7 +3465,7 @@
       <c r="E78" s="8">
         <v>0.088605963</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>-0.308404033</v>
       </c>
       <c r="G78" s="6">
@@ -3497,7 +3494,7 @@
       <c r="E79" s="8">
         <v>0.229486703</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>-0.310198623</v>
       </c>
       <c r="G79" s="6">
@@ -3526,7 +3523,7 @@
       <c r="E80" s="8">
         <v>0.363233112</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>-0.305988171</v>
       </c>
       <c r="G80" s="6">
@@ -3555,7 +3552,7 @@
       <c r="E81" s="8">
         <v>0.479606712</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>-0.296045846</v>
       </c>
       <c r="G81" s="6">
@@ -3584,7 +3581,7 @@
       <c r="E82" s="8">
         <v>0.562164146</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>-0.280833103</v>
       </c>
       <c r="G82" s="6">
@@ -3613,7 +3610,7 @@
       <c r="E83" s="8">
         <v>0.591443778</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>-0.260716128</v>
       </c>
       <c r="G83" s="6">
@@ -3642,7 +3639,7 @@
       <c r="E84" s="8">
         <v>0.553625367</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>-0.236033754</v>
       </c>
       <c r="G84" s="6">
@@ -3671,7 +3668,7 @@
       <c r="E85" s="8">
         <v>0.448108693</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>-0.207618778</v>
       </c>
       <c r="G85" s="6">
@@ -3700,7 +3697,7 @@
       <c r="E86" s="8">
         <v>0.289088795</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>-0.178030766</v>
       </c>
       <c r="G86" s="6">
@@ -3729,7 +3726,7 @@
       <c r="E87" s="8">
         <v>0.101615818</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>-0.151987019</v>
       </c>
       <c r="G87" s="6">
@@ -3758,7 +3755,7 @@
       <c r="E88" s="8">
         <v>-0.087388014</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>-0.135194617</v>
       </c>
       <c r="G88" s="6">
@@ -3787,7 +3784,7 @@
       <c r="E89" s="8">
         <v>-0.255091222</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <v>-0.131827221</v>
       </c>
       <c r="G89" s="6">
@@ -3816,7 +3813,7 @@
       <c r="E90" s="8">
         <v>-0.38393508</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="10">
         <v>-0.142559116</v>
       </c>
       <c r="G90" s="6">
@@ -3845,7 +3842,7 @@
       <c r="E91" s="8">
         <v>-0.461121227</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="10">
         <v>-0.164553459</v>
       </c>
       <c r="G91" s="6">
@@ -3874,7 +3871,7 @@
       <c r="E92" s="8">
         <v>-0.479589523</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="10">
         <v>-0.192754638</v>
       </c>
       <c r="G92" s="6">
@@ -3903,7 +3900,7 @@
       <c r="E93" s="8">
         <v>-0.440404481</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="10">
         <v>-0.221639791</v>
       </c>
       <c r="G93" s="6">
@@ -3932,7 +3929,7 @@
       <c r="E94" s="8">
         <v>-0.353341992</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <v>-0.246976565</v>
       </c>
       <c r="G94" s="6">
@@ -3961,7 +3958,7 @@
       <c r="E95" s="8">
         <v>-0.23385763</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <v>-0.266629946</v>
       </c>
       <c r="G95" s="6">
@@ -3990,7 +3987,7 @@
       <c r="E96" s="8">
         <v>-0.09849524</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="10">
         <v>-0.28000446</v>
       </c>
       <c r="G96" s="6">
@@ -4019,7 +4016,7 @@
       <c r="E97" s="8">
         <v>0.038721476</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="10">
         <v>-0.287014415</v>
       </c>
       <c r="G97" s="6">
@@ -4048,7 +4045,7 @@
       <c r="E98" s="8">
         <v>0.166390791</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <v>-0.287634176</v>
       </c>
       <c r="G98" s="6">
@@ -4077,7 +4074,7 @@
       <c r="E99" s="8">
         <v>0.274006344</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="10">
         <v>-0.282049423</v>
       </c>
       <c r="G99" s="6">
@@ -4106,7 +4103,7 @@
       <c r="E100" s="8">
         <v>0.350783294</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="10">
         <v>-0.270817336</v>
       </c>
       <c r="G100" s="6">
@@ -4135,7 +4132,7 @@
       <c r="E101" s="8">
         <v>0.386727563</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="10">
         <v>-0.254847099</v>
       </c>
       <c r="G101" s="6">
@@ -4164,7 +4161,7 @@
       <c r="E102" s="8">
         <v>0.375728137</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="10">
         <v>-0.23534788</v>
       </c>
       <c r="G102" s="6">
@@ -4193,7 +4190,7 @@
       <c r="E103" s="8">
         <v>0.318459205</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="10">
         <v>-0.213975146</v>
       </c>
       <c r="G103" s="6">
@@ -4222,7 +4219,7 @@
       <c r="E104" s="8">
         <v>0.22331465</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="10">
         <v>-0.193061565</v>
       </c>
       <c r="G104" s="6">
@@ -4251,7 +4248,7 @@
       <c r="E105" s="8">
         <v>0.104551064</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="10">
         <v>-0.175587814</v>
       </c>
       <c r="G105" s="6">
@@ -4280,7 +4277,7 @@
       <c r="E106" s="8">
         <v>-0.020947549</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="10">
         <v>-0.164582992</v>
       </c>
       <c r="G106" s="6">
@@ -4309,7 +4306,7 @@
       <c r="E107" s="8">
         <v>-0.136679812</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="10">
         <v>-0.162122493</v>
       </c>
       <c r="G107" s="6">
@@ -4338,7 +4335,7 @@
       <c r="E108" s="8">
         <v>-0.228419804</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="10">
         <v>-0.168516018</v>
       </c>
       <c r="G108" s="6">
@@ -4367,7 +4364,7 @@
       <c r="E109" s="8">
         <v>-0.285475625</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="10">
         <v>-0.182141918</v>
       </c>
       <c r="G109" s="6">
@@ -4396,7 +4393,7 @@
       <c r="E110" s="8">
         <v>-0.302021978</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="10">
         <v>-0.199983427</v>
       </c>
       <c r="G110" s="6">
@@ -4425,7 +4422,7 @@
       <c r="E111" s="8">
         <v>-0.27808103</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="10">
         <v>-0.218582901</v>
       </c>
       <c r="G111" s="6">
@@ -4454,7 +4451,7 @@
       <c r="E112" s="8">
         <v>-0.219490276</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="10">
         <v>-0.235004652</v>
       </c>
       <c r="G112" s="6">
@@ -4483,7 +4480,7 @@
       <c r="E113" s="8">
         <v>-0.136450899</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="10">
         <v>-0.247387304</v>
       </c>
       <c r="G113" s="6">
@@ -4512,7 +4509,7 @@
       <c r="E114" s="8">
         <v>-0.041241562</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="10">
         <v>-0.254898289</v>
       </c>
       <c r="G114" s="6">
@@ -4541,7 +4538,7 @@
       <c r="E115" s="8">
         <v>0.05372075</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="10">
         <v>-0.257384072</v>
       </c>
       <c r="G115" s="6">
@@ -4570,7 +4567,7 @@
       <c r="E116" s="8">
         <v>0.137069338</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="10">
         <v>-0.255091939</v>
       </c>
       <c r="G116" s="6">
@@ -4599,7 +4596,7 @@
       <c r="E117" s="8">
         <v>0.199062007</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="10">
         <v>-0.248590126</v>
       </c>
       <c r="G117" s="6">
@@ -4628,7 +4625,7 @@
       <c r="E118" s="8">
         <v>0.232362426</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="10">
         <v>-0.238776113</v>
       </c>
       <c r="G118" s="6">
@@ -4657,7 +4654,7 @@
       <c r="E119" s="8">
         <v>0.233075441</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <v>-0.226866556</v>
       </c>
       <c r="G119" s="6">
@@ -4671,151 +4668,151 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
